--- a/cards.xlsx
+++ b/cards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snidersa\git\CKCG-card-maker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansarij\Winter-22-Workspace\CrimsonKnights\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C071562-C8D2-4373-A1C4-6D4F1A796251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBA80C5-BB16-4489-BBDA-C705DF15E50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -45,28 +45,250 @@
     <t>C</t>
   </si>
   <si>
-    <t>Test creature</t>
-  </si>
-  <si>
-    <t>Test Spell</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
-    <t>Test Spell Description</t>
-  </si>
-  <si>
-    <t>Test Creature description</t>
-  </si>
-  <si>
     <t>Character</t>
   </si>
   <si>
-    <t>Character 1</t>
-  </si>
-  <si>
-    <t>Character 2</t>
+    <t>E</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Canton</t>
+  </si>
+  <si>
+    <t>Wand of the War Mage</t>
+  </si>
+  <si>
+    <t>Pearl of Power</t>
+  </si>
+  <si>
+    <t>Irradianus Mundi</t>
+  </si>
+  <si>
+    <t>Once 8 spells have been in your discard pile, equip this. As an action, you can play a spell from your discard pile as long as there is 2 copies of it in the discard pile and isn't a reaction.</t>
+  </si>
+  <si>
+    <t>After you have played 4 spells from hand this game, equip this. Once per game, you can roll 1d4 and add up to that many spells from your discard pile to your hand. Those choosen spells don't count against you max hand size until used.</t>
+  </si>
+  <si>
+    <t>When you have shuffled 3 spells back into your deck, equip this. Your hero's passive does 2 additional damage.</t>
+  </si>
+  <si>
+    <t>Canicus</t>
+  </si>
+  <si>
+    <t>The first time you cast a spell in a turn, you can play a spell from your discard pile.</t>
+  </si>
+  <si>
+    <t>Bend Luck</t>
+  </si>
+  <si>
+    <t>Choose a player and send one of their cards either on the field, hand, or top card of their deck to the discard pile.</t>
+  </si>
+  <si>
+    <t>Corrosive Cage</t>
+  </si>
+  <si>
+    <t>When drawn, place this card on the field. It is dormant and can't be effected. Whenever a "Crafting Component" card is played, attach to this card.  When this card gets 2 "Crafting Components", it becomes no longer dormant and equips to the hero. While not dormant, you can use a reaction to trap a card being played inside. While trapped the card cannot be played, and it takes an action for the cards owner to add it back to their hand. Only one card can be held at a time.</t>
+  </si>
+  <si>
+    <t>Crafting Component</t>
+  </si>
+  <si>
+    <t>Finding Evidence</t>
+  </si>
+  <si>
+    <t>Choose an enemy hero, equip this to them. Each instance of damage you deal with spells against that target will deal 1 more damage. When that hero dies, you heal 10 HP.</t>
+  </si>
+  <si>
+    <t>Preparing Ingredients</t>
+  </si>
+  <si>
+    <t>Take 2 cards of your choice out of the deck, shuffle your deck, and then place those 2 cards on top of the deck in any order. Draw 2 cards on your next turn.</t>
+  </si>
+  <si>
+    <t>Presenting a Case</t>
+  </si>
+  <si>
+    <t>If this is not drawn by "Finding Evidence", shuffle this card back into the deck and draw again. Play all 3 cards that are out of the game and then shuffle this card and "Finding Evidence" back into the deck.</t>
+  </si>
+  <si>
+    <t>Raven Queen's Fate</t>
+  </si>
+  <si>
+    <t>Take 3 cards of your choice out of the deck and place them in your hand, then shuffle the deck. These 3 cards don't count against you max hand size and you must discard 3 cards at the end of your next turn.</t>
+  </si>
+  <si>
+    <t>Sorcery Points</t>
+  </si>
+  <si>
+    <t>Add a card from your discard pile to your hand, then play another card.</t>
+  </si>
+  <si>
+    <t>Tides of Chaos</t>
+  </si>
+  <si>
+    <t>When your opponent plays a card, pick a card randomly from their hand to play instead. If "Wild Magic Surge" is in the discard pile, add it to your hand.</t>
+  </si>
+  <si>
+    <t>Wild Magic Surge</t>
+  </si>
+  <si>
+    <t>Roll a d20,  on a 1 discard your hand, on a 2 to 10 you can play a spell from your discard pile and then add it to your hand, on a 11 to 19 you draw a card and then play a spell card from your hand, on a 20 you roll 2 more times (rerolling any 1s or repeat 20s.)</t>
+  </si>
+  <si>
+    <t>Agonizing Blast</t>
+  </si>
+  <si>
+    <t>Dimension Door</t>
+  </si>
+  <si>
+    <t>Counterspell</t>
+  </si>
+  <si>
+    <t>Repelling Blast</t>
+  </si>
+  <si>
+    <t>Telekinesis</t>
+  </si>
+  <si>
+    <t>Vortex Warp</t>
+  </si>
+  <si>
+    <t>1d4+2</t>
+  </si>
+  <si>
+    <t>Deal 1d4+2 damage to a enemy of your choice.</t>
+  </si>
+  <si>
+    <t>Draw a card and then remove the top card from an opponents deck of your choice.</t>
+  </si>
+  <si>
+    <t>Take a another card in you hand and switch it out with a card of your choice in your deck, then shuffle your deck.</t>
+  </si>
+  <si>
+    <t>Select an enemy, Deal 2 damage to it and have its current player send a random card from their hand back to the top of their deck.</t>
+  </si>
+  <si>
+    <t>Take up to two cards from your deck or discard pile and add it to your hand, then look in your opponents hand and shuffle one of those cards into that player's deck.</t>
+  </si>
+  <si>
+    <t>Take a card on the field or hand and shuffle it into its owner's deck, or add a card from your discard pile to your hand.</t>
+  </si>
+  <si>
+    <t>Hexblade's Curse</t>
+  </si>
+  <si>
+    <t>Equip to your hero. The first time you would play a non-comapnion card on a turn, set it outside the game instead of in the discard pile. Once you have 3 cards set aside, draw "Presenting Case"</t>
+  </si>
+  <si>
+    <t>If you draw this card while not having a "Craftable" card on the field, shuffle this back into your deck a draw again. If there is a "Craftable" card in the field, play it immediately and your hero gains +1 AC permanently.</t>
+  </si>
+  <si>
+    <t>Claw</t>
+  </si>
+  <si>
+    <t>Aiged</t>
+  </si>
+  <si>
+    <t>+3 attack, When you attack an opponent's hero, you can add a card from your discard pile to your hand except "Taxes" and it cannot be played that turn.</t>
+  </si>
+  <si>
+    <t>Seaweave Boat</t>
+  </si>
+  <si>
+    <t>+2 AC, As an action you can select an opponent, then you both randomly choose a card in each others hand to discard.</t>
+  </si>
+  <si>
+    <t>Wilhelm</t>
+  </si>
+  <si>
+    <t>When this card is played, equip a tax gold from a players deck to this card. When this dies, attach the tax gold to Aiged.</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Choose an opponent and search their deck, if you find a "Tax Gold" card, attach it to Aiged.</t>
+  </si>
+  <si>
+    <t>Tax Gold</t>
+  </si>
+  <si>
+    <t>Draw 2 cards. When played or discarded, attach it to Aiged.</t>
+  </si>
+  <si>
+    <t>Battle Miniatures</t>
+  </si>
+  <si>
+    <t>Opponents cannot target you with cards and attacks while you have this minion on your field.</t>
+  </si>
+  <si>
+    <t>Fire Breath</t>
+  </si>
+  <si>
+    <t>Planetar Form</t>
+  </si>
+  <si>
+    <t>Equip this to your hero until the end of your second turn. While equipped, you hero doesn't take damage when attacking and can use an action to heal 1d8.</t>
+  </si>
+  <si>
+    <t>This is a public Spa!</t>
+  </si>
+  <si>
+    <t>All minions on the field are returned to their owner's hands. If there are none draw, 2 cards instead.</t>
+  </si>
+  <si>
+    <t>Radiant Breath</t>
+  </si>
+  <si>
+    <t>Select an opponent, that opponent and their minions take 2 damage and cannot attack until the end of your next turn</t>
+  </si>
+  <si>
+    <t>Select two cards in an opponents hand of your choice and discard them, any "Tax Gold" cards are attached to Aiged.</t>
+  </si>
+  <si>
+    <t>Choose up to 5 minions or opponents of your choice and deal 2 damage to each of them, ignoring AC.</t>
+  </si>
+  <si>
+    <t>Gold Eater</t>
+  </si>
+  <si>
+    <t>Human Form</t>
+  </si>
+  <si>
+    <t>Heal 1d4 and equip this to your hero until the end of your second turn. While equipped, when you draw a card during your draw phase you may place it at the bottom of your deck and draw another, once.</t>
+  </si>
+  <si>
+    <t>Divine Awareness</t>
+  </si>
+  <si>
+    <t>Select an opponent and look at their hand. If they are holding a "Tax Gold" card, they must discard one card of their choice.</t>
+  </si>
+  <si>
+    <t>Come Pick Us Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select an opponent then you and that opponent shuffle your hands into your decks, then draw cards equal to the amount shuffled + 1. </t>
+  </si>
+  <si>
+    <t>Tactical Minitures</t>
+  </si>
+  <si>
+    <t>Heretical Divide</t>
+  </si>
+  <si>
+    <t>If this minion is alive during your next beginning phase, destroy it and draw a card.</t>
+  </si>
+  <si>
+    <t>Until the end of your next turn, any time an opponent would either use an action or attack with a minion or hero, they must send the top card of their deck to the discard pile. Any "Tax Gold" sent it attached to Aiged instead.</t>
   </si>
 </sst>
 </file>
@@ -384,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -409,32 +631,32 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -443,13 +665,713 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/cards.xlsx
+++ b/cards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansarij\Winter-22-Workspace\CrimsonKnights\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snidersa\git\CrimsonKnights\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBA80C5-BB16-4489-BBDA-C705DF15E50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D847FC6-4DD1-42F8-BC73-B43D8DA26F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="428">
   <si>
     <t>Name</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Corrosive Cage</t>
   </si>
   <si>
-    <t>When drawn, place this card on the field. It is dormant and can't be effected. Whenever a "Crafting Component" card is played, attach to this card.  When this card gets 2 "Crafting Components", it becomes no longer dormant and equips to the hero. While not dormant, you can use a reaction to trap a card being played inside. While trapped the card cannot be played, and it takes an action for the cards owner to add it back to their hand. Only one card can be held at a time.</t>
-  </si>
-  <si>
     <t>Crafting Component</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>Wild Magic Surge</t>
   </si>
   <si>
-    <t>Roll a d20,  on a 1 discard your hand, on a 2 to 10 you can play a spell from your discard pile and then add it to your hand, on a 11 to 19 you draw a card and then play a spell card from your hand, on a 20 you roll 2 more times (rerolling any 1s or repeat 20s.)</t>
-  </si>
-  <si>
     <t>Agonizing Blast</t>
   </si>
   <si>
@@ -231,9 +225,6 @@
     <t>Opponents cannot target you with cards and attacks while you have this minion on your field.</t>
   </si>
   <si>
-    <t>Fire Breath</t>
-  </si>
-  <si>
     <t>Planetar Form</t>
   </si>
   <si>
@@ -276,9 +267,6 @@
     <t>Come Pick Us Up</t>
   </si>
   <si>
-    <t xml:space="preserve">Select an opponent then you and that opponent shuffle your hands into your decks, then draw cards equal to the amount shuffled + 1. </t>
-  </si>
-  <si>
     <t>Tactical Minitures</t>
   </si>
   <si>
@@ -289,6 +277,1038 @@
   </si>
   <si>
     <t>Until the end of your next turn, any time an opponent would either use an action or attack with a minion or hero, they must send the top card of their deck to the discard pile. Any "Tax Gold" sent it attached to Aiged instead.</t>
+  </si>
+  <si>
+    <t>Pepperbox</t>
+  </si>
+  <si>
+    <t>While attacking, you take no damage in return.</t>
+  </si>
+  <si>
+    <t>Tyrael</t>
+  </si>
+  <si>
+    <t>Gauntlet</t>
+  </si>
+  <si>
+    <t>For each elemental gem in your discard pile, increase this attack by +1</t>
+  </si>
+  <si>
+    <t>Ring of Bards</t>
+  </si>
+  <si>
+    <t>As an action you can choose a card in your discard pile and play it.</t>
+  </si>
+  <si>
+    <t>Watermelon</t>
+  </si>
+  <si>
+    <t>Ioun Stone</t>
+  </si>
+  <si>
+    <t>You have an additional action every turn, but can't use it to play a minion or spell card.</t>
+  </si>
+  <si>
+    <t>Tyreal Clone</t>
+  </si>
+  <si>
+    <t>When this dies, you can take a card in your hand and shuffle it into your deck, then draw a card.</t>
+  </si>
+  <si>
+    <t>Terry</t>
+  </si>
+  <si>
+    <t>Tyreal can play this card from anywhere.</t>
+  </si>
+  <si>
+    <t>Baefordrin</t>
+  </si>
+  <si>
+    <t>When played, add a non-minion card from your discard pile to your hand.</t>
+  </si>
+  <si>
+    <t>Tenser's Transformation</t>
+  </si>
+  <si>
+    <t>Roll 1d12, You gain that much attack and AC until the end of this turn and then heal equal to half the roll rounded down.</t>
+  </si>
+  <si>
+    <t>Elemental Gem (Blue)</t>
+  </si>
+  <si>
+    <t>Discard the top card of your deck and gain an additional action.</t>
+  </si>
+  <si>
+    <t>Elemental Gem (Green)</t>
+  </si>
+  <si>
+    <t>Choose an opponent, send 2 random cards from either their hand or field into their deck and shuffle. They then draw 2.</t>
+  </si>
+  <si>
+    <t>Elemental Gem (Red)</t>
+  </si>
+  <si>
+    <t>Deal 1d6 damage to a target of your choice.</t>
+  </si>
+  <si>
+    <t>Elemental Gem (Yellow)</t>
+  </si>
+  <si>
+    <t>Gain 1d6 AC until the start of your next turn.</t>
+  </si>
+  <si>
+    <t>You Wouldn't Understand</t>
+  </si>
+  <si>
+    <t>Take a card of your choice from your hand or deck, and replace it with a card from an opponent's deck at random that isn't a minion. Then each player shuffles their deck.</t>
+  </si>
+  <si>
+    <t>Cutting Words</t>
+  </si>
+  <si>
+    <t>remove a random card from each opponents hand.</t>
+  </si>
+  <si>
+    <t>Otto's Irresistible Dance</t>
+  </si>
+  <si>
+    <t>Send all minions on every field into their owner's hand. If an opponent doens't have minions, they must shuffle a card from their hand into their deck.</t>
+  </si>
+  <si>
+    <t>Lore Bard</t>
+  </si>
+  <si>
+    <t>Pick an opponent, choose to either have them trade one of their cards in their hand or on their field with one randomly in your hand.</t>
+  </si>
+  <si>
+    <t>Magical Secrets</t>
+  </si>
+  <si>
+    <t>Pick an opponent, look through their discard pile and play a non-minion card.</t>
+  </si>
+  <si>
+    <t>A Wishful Restoration</t>
+  </si>
+  <si>
+    <t>Take 2 cards from your discard pile and put them in you hand, then heal 5 HP.</t>
+  </si>
+  <si>
+    <t>Fabricate</t>
+  </si>
+  <si>
+    <t>Add 1 card from your deck to your hand, then shuffle your deck. If it wasn't a minion or spell, you gain 2 attack and AC until the start of your next turn.</t>
+  </si>
+  <si>
+    <t>Im the Cook Now</t>
+  </si>
+  <si>
+    <t>Choose an opponent, draw three cards from the top of their deck. Then that opponent chooses one to give you, discarding the rest.</t>
+  </si>
+  <si>
+    <t>31 Passive</t>
+  </si>
+  <si>
+    <t>When your hero is attacked, stop the opponent's and make an attack against their hero with your own.</t>
+  </si>
+  <si>
+    <t>Inventor's Insight</t>
+  </si>
+  <si>
+    <t>Disable either a Weapon or Equipment of an opponent of your choice has equipped and gain its effects until the end of your next turn.</t>
+  </si>
+  <si>
+    <t>Chain Breaker</t>
+  </si>
+  <si>
+    <t>Everyone discards a card of their choice, this then becomes a minion with attack and AC equal to the total amount of cards that were discarded this turn.</t>
+  </si>
+  <si>
+    <t>Cloud Splitter</t>
+  </si>
+  <si>
+    <t>When you attack a minion, that minions owner takes equivalent damage.</t>
+  </si>
+  <si>
+    <t>Praedyth</t>
+  </si>
+  <si>
+    <t>Opulent Cindus</t>
+  </si>
+  <si>
+    <t>Once a game as an action you can choose to either draw 5 cards, gain +5 attack, or gain +5 AC until the start of your next turn.</t>
+  </si>
+  <si>
+    <t>Alexia</t>
+  </si>
+  <si>
+    <t>Rovin</t>
+  </si>
+  <si>
+    <t>When this card is played from your hand, place a minion from your discard pile onto your field.</t>
+  </si>
+  <si>
+    <t>Laurent Thibolt</t>
+  </si>
+  <si>
+    <t>When this minion dies, draw a card.</t>
+  </si>
+  <si>
+    <t>Lewis the Dog</t>
+  </si>
+  <si>
+    <t>If this is in the discard pile, you can use an action to bring it back to the field.</t>
+  </si>
+  <si>
+    <t>Vonett the Chair</t>
+  </si>
+  <si>
+    <t>Opponents must attack this card before they can attack the cards owner.</t>
+  </si>
+  <si>
+    <t>Bardic Inspiration</t>
+  </si>
+  <si>
+    <t>Roll 1d6, give one of your minions that much attack and AC until the end of your turn.</t>
+  </si>
+  <si>
+    <t>Tempestuous Magic</t>
+  </si>
+  <si>
+    <t>Draw a card, your hero cannot be targeted for attacks or spells until your next turn, and skip your combat phase for this turn.</t>
+  </si>
+  <si>
+    <t>Storm's Fury</t>
+  </si>
+  <si>
+    <t>when one of your minions is attacked, the attacker takes 1d4 damage for each minion on your field.</t>
+  </si>
+  <si>
+    <t>Vampiric Bite</t>
+  </si>
+  <si>
+    <t>Choose an opponent, then roll 1d4. Deal damage to the opponent and heal yourself equal to the number rolled. This damage ignores AC</t>
+  </si>
+  <si>
+    <t>Mobile Florish</t>
+  </si>
+  <si>
+    <t>On your next attack add 1d4 to it, then select a card randomly in the hand of the attacked opponent. They must shuffle it back into their deck.</t>
+  </si>
+  <si>
+    <t>Defensive Florish</t>
+  </si>
+  <si>
+    <t>When an opponent uses an action, roll 1d6 and you gain attack and AC to the number rolled until the end of your next turn.</t>
+  </si>
+  <si>
+    <t>Slashing Florish</t>
+  </si>
+  <si>
+    <t>When an opponent uses an action, roll 1d6 and you gain attack to the number rolled and when you attack next, choose one other target to take equivalent damage.</t>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>Search your deck and pick a card, then add that card to your hand.</t>
+  </si>
+  <si>
+    <t>Raise Dead</t>
+  </si>
+  <si>
+    <t>Select a minion in your discard pile and summon it to the field.</t>
+  </si>
+  <si>
+    <t>Mental Prison</t>
+  </si>
+  <si>
+    <t>Select an opponent, each time they play a card or attack with a hero or minion they take 1d10 damage until the end of your next turn.</t>
+  </si>
+  <si>
+    <t>Synaptic Static</t>
+  </si>
+  <si>
+    <t>Select an opponent, each time they do damage to another target with either an attack, ability, or spell, they subract 1d6 to the number.</t>
+  </si>
+  <si>
+    <t>Taking the Spotlight</t>
+  </si>
+  <si>
+    <t>You gain 4 AC and your minions are untargetable and immune to all effects until the start of your next turn. Your minions can't attack during this combat phase.</t>
+  </si>
+  <si>
+    <t>Theater Postings</t>
+  </si>
+  <si>
+    <t>Search the top 1d6 cards of your deck, place one minion onto the field and put the other cards onto the top of your deck in any order. The minion can't attack this turn.</t>
+  </si>
+  <si>
+    <t>Gathering Crowd</t>
+  </si>
+  <si>
+    <t>When this minion is summoned, search your deck for a minion and add it to your hand.</t>
+  </si>
+  <si>
+    <t>Zeitherz</t>
+  </si>
+  <si>
+    <t>when you cast a spell, you can discard 2 card to cast it twice.</t>
+  </si>
+  <si>
+    <t>Nathanial</t>
+  </si>
+  <si>
+    <t>Staff of Power</t>
+  </si>
+  <si>
+    <t>when you cast a spell, it does 1 additional damage.</t>
+  </si>
+  <si>
+    <t>Cloak of invisibility</t>
+  </si>
+  <si>
+    <t>as an action you can discard a card and can't be targeted by attacks or spells until the start of your next turn.</t>
+  </si>
+  <si>
+    <t>Familiar</t>
+  </si>
+  <si>
+    <t>Whenever you cast a spell, draw a card.</t>
+  </si>
+  <si>
+    <t>Flying Carpet</t>
+  </si>
+  <si>
+    <t>Whenever you draw a card(s) outside your draw phase, you can play 1 additional card this turn.</t>
+  </si>
+  <si>
+    <t>Flying Broom</t>
+  </si>
+  <si>
+    <t>When this is in the discard pile, as an action summon this to your field and draw a card.</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>gain 5 AC till the start of your next turn.</t>
+  </si>
+  <si>
+    <t>Cone of Cold</t>
+  </si>
+  <si>
+    <t>each opponent can choose to take 6 damage or skip their next draw phase.</t>
+  </si>
+  <si>
+    <t>Crown of Stars</t>
+  </si>
+  <si>
+    <t>Discard any amount of cards of your choice from your hand, for each one discarded deal 1d4 damage to an opponent of your choice.</t>
+  </si>
+  <si>
+    <t>Meteor Swarm</t>
+  </si>
+  <si>
+    <t>Discard your hand and for every 2 cards in your discard pile, deal 2 damage to all enenmies. If you deal 6 damage, draw 1 card.</t>
+  </si>
+  <si>
+    <t>Counter Spell</t>
+  </si>
+  <si>
+    <t>Mage Armor</t>
+  </si>
+  <si>
+    <t>Equip to your hero, gain +2 AC</t>
+  </si>
+  <si>
+    <t>Tidal Wave</t>
+  </si>
+  <si>
+    <t>Choose an enemy hero, deal 1d4 damage to them and then draw a card. If that opponent had any minions, they cannot attack you until the start of your next turn.</t>
+  </si>
+  <si>
+    <t>Flash of Geniuess</t>
+  </si>
+  <si>
+    <t>Shuffle your discard pile into your deck.</t>
+  </si>
+  <si>
+    <t>Empowered Evocation</t>
+  </si>
+  <si>
+    <t>Any damage you do with a spell this turn does 1 additional damage, you can play another spell card this turn.</t>
+  </si>
+  <si>
+    <t>Overchannel</t>
+  </si>
+  <si>
+    <t>Discard 3 cards, Until the end of your next turn, damage from spells is doubled.</t>
+  </si>
+  <si>
+    <t>Keen Mind</t>
+  </si>
+  <si>
+    <t>Look at the top 4 cards of your deck, choose 2 among then and place those in your hand, discard the rest.</t>
+  </si>
+  <si>
+    <t>Alexander William James Arroyo the 6th</t>
+  </si>
+  <si>
+    <t>Discard a card from your hand, You can play 2 additional cards this turn only.</t>
+  </si>
+  <si>
+    <t>Touched by Time</t>
+  </si>
+  <si>
+    <t>Look at the top 3 cards of your discard pile and add a spell from among them to your hand, shuffle the rest into you deck.</t>
+  </si>
+  <si>
+    <t>Dad's Bank Account</t>
+  </si>
+  <si>
+    <t>Take a card from you hand and place it outside the game. 1 to 3 turns after this card is played, use an action to add the card to your hand a draw an amount of cards equal to the number of your turns that passed.</t>
+  </si>
+  <si>
+    <t>Correlon's Blessing</t>
+  </si>
+  <si>
+    <t>Equip this to your hero. Spell Cards in your hand and discard pile can't be effected by opponents. (If a card makes you discard and you only have spells, you are unaffected)</t>
+  </si>
+  <si>
+    <t>Select an opponent then you and that opponent shuffle your hands into your decks, then draw cards equal to the amount shuffled + 1.</t>
+  </si>
+  <si>
+    <t>Roll a d20, on a 1 discard your hand, on a 2 to 10 you can play a spell from your discard pile and then add it to your hand, on a 11 to 19 you draw a card and then play a spell card from your hand, on a 20 you roll 2 more times (rerolling any 1s or repeat 20s.)</t>
+  </si>
+  <si>
+    <t>Roaring Deliverance</t>
+  </si>
+  <si>
+    <t>After Draveik has taken 3 attacks, equip this. +2 attack and when you hit but don't kill a minion, send it back to the top of the opponent's deck.</t>
+  </si>
+  <si>
+    <t>Draveik</t>
+  </si>
+  <si>
+    <t>Deusiderre</t>
+  </si>
+  <si>
+    <t>If you spend 3 turns in a row taking no action, equip this weapon. +4 attack, you can use an action to sacrifice 10 HP to increase to +7 attack until the end of the turn.</t>
+  </si>
+  <si>
+    <t>Retribution Spine</t>
+  </si>
+  <si>
+    <t>After receiving a total of 4 damage while attacking, equip this. +1 AC, Any enemy that attacks your hero takes 1d4 damage</t>
+  </si>
+  <si>
+    <t>Second Wind</t>
+  </si>
+  <si>
+    <t>Heal 1d10 HP</t>
+  </si>
+  <si>
+    <t>Action Surge (Draveik)</t>
+  </si>
+  <si>
+    <t>You get two additional actions during this action phase, draw a card.</t>
+  </si>
+  <si>
+    <t>Indomitable</t>
+  </si>
+  <si>
+    <t>When a player targets you with a card, put it back in there hand and make them play another card in their hand if able.</t>
+  </si>
+  <si>
+    <t>Extra Attack</t>
+  </si>
+  <si>
+    <t>Your hero can make two attacks instead of one during this combat phase.</t>
+  </si>
+  <si>
+    <t>Roll 1d6, deal that much damage to all enemies</t>
+  </si>
+  <si>
+    <t>Land Strider/Deft Explorer</t>
+  </si>
+  <si>
+    <t>Take two cards from your discard pile and shuffle them into your deck, then draw one./ Draw 2 cards, then shuffle one card from your discard pile into your deck.</t>
+  </si>
+  <si>
+    <t>Absorb Elements</t>
+  </si>
+  <si>
+    <t>When you are dealt damage, roll 1d6 and subtract from that instance of damage. On your next attack, add 1d6 damage to the attack.</t>
+  </si>
+  <si>
+    <t>Zephyr Strike</t>
+  </si>
+  <si>
+    <t>Draw a card, your next attack this turn deals an extra 1d4 damage.</t>
+  </si>
+  <si>
+    <t>Last Ditch Effort</t>
+  </si>
+  <si>
+    <t>Deal 10 to yourself and then if you are alive, deal 10 to your opponent.</t>
+  </si>
+  <si>
+    <t>Quality Build</t>
+  </si>
+  <si>
+    <t>Until the start of your next turn, your attack or AC is equal to your highest other stat of attack or AC.</t>
+  </si>
+  <si>
+    <t>Sealed Dielong</t>
+  </si>
+  <si>
+    <t>You can take 5 damage to summon this when discarded.</t>
+  </si>
+  <si>
+    <t>Unsealed Dielong</t>
+  </si>
+  <si>
+    <t>you can take 5 damage to summon this when discarded.</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>At the end of your turn, draw a card</t>
+  </si>
+  <si>
+    <t>Daennis</t>
+  </si>
+  <si>
+    <t>Whenever your hero attacks, draw a card, then you can discard one.</t>
+  </si>
+  <si>
+    <t>Blind Vengeance/PureIntent</t>
+  </si>
+  <si>
+    <t>Discard 1 card and draw 2./ Draw 1 card</t>
+  </si>
+  <si>
+    <t>Goading/Grappling Strike</t>
+  </si>
+  <si>
+    <t>Until the start of your next turn, gain +2 attack and everytime you are damaged, discard a card and gains another 2 attack./ Each opponent you attack next skips their draw phase.</t>
+  </si>
+  <si>
+    <t>Slayers Prey</t>
+  </si>
+  <si>
+    <t>Choose an enemy, your next attack(s) against them in a turn deals an extra 1d6 of damage.</t>
+  </si>
+  <si>
+    <t>Know Your Enemy/Favored Foe</t>
+  </si>
+  <si>
+    <t>Choose an opponent and look into their hand, then discard one of your own cards. Your opponent must discard a card of the same type if possible./ Choose an opponent, until the start of your next turn whenever they play a card, draw a card, then you may discard one.</t>
+  </si>
+  <si>
+    <t>Strong Will/Conflicting Ideals</t>
+  </si>
+  <si>
+    <t>Discard any amount of cards from your hand, your hero gains 2 attack + 2 more for each card discared this turn./ The next time you are attacked, deal 3 additional retaliation damage</t>
+  </si>
+  <si>
+    <t>Feinting/Precision Attack</t>
+  </si>
+  <si>
+    <t>Discard another card, your hero's next attack deals 1d6 more damage and can reroll any rolled damage by your hero once this turn only./ Your next attack ignores AC.</t>
+  </si>
+  <si>
+    <t>Pushing Attack/Sweeping Strike</t>
+  </si>
+  <si>
+    <t>Discard a card, your opponent must put one card in their hand on top of their deck and one of their cards on the field into their hand if possible. / When you attack with your hero, deal that damage to an additionaly opponent or enemy minion of your choice.</t>
+  </si>
+  <si>
+    <t>Antithesis</t>
+  </si>
+  <si>
+    <t>When one of your companions die, equip this. +2 attack, reaction 1/game negate one effect targeting one of your companions</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Oakhardt's Vestment</t>
+  </si>
+  <si>
+    <t>Once you have taken 10 damage for your companions, equip this. +2 AC, reaction 1/game change the target of one spell or effect to Michael if applicable</t>
+  </si>
+  <si>
+    <t>Banner of Safe Haven</t>
+  </si>
+  <si>
+    <t>Once you have played 3 aura cards, equip this. When one of your minions takes damage, roll a d4, reduce the damage by that amount.</t>
+  </si>
+  <si>
+    <t>Bol Wyrtson</t>
+  </si>
+  <si>
+    <t>At the start of your beggining phase, restore this companion to full health</t>
+  </si>
+  <si>
+    <t>Harry Oakhardt</t>
+  </si>
+  <si>
+    <t>When this companion attacks, draw a card</t>
+  </si>
+  <si>
+    <t>Vela Venta</t>
+  </si>
+  <si>
+    <t>Your hero does not take retaliation damage.</t>
+  </si>
+  <si>
+    <t>Aura of Protection</t>
+  </si>
+  <si>
+    <t>(Aura) Equip this to your hero until the end of your next turn, reduce damage dealt to you and your minions by 2.</t>
+  </si>
+  <si>
+    <t>Aura of Vitality</t>
+  </si>
+  <si>
+    <t>(Aura) Equip this to your hero until the start of your next turn, If any of your companions die, return them to the field at the start of your action phase with 1 life.</t>
+  </si>
+  <si>
+    <t>Crusader's Mantel</t>
+  </si>
+  <si>
+    <t>(Aura) Equip this to your hero until the start of your next turn, your hero and companions gain +2 attack.</t>
+  </si>
+  <si>
+    <t>Blinding Smite</t>
+  </si>
+  <si>
+    <t>Your Hero and Vela Venta’s next attack this turn deals 2 extra damage, and the target hit cannot attack until the start of your next turn.</t>
+  </si>
+  <si>
+    <t>Revivify</t>
+  </si>
+  <si>
+    <t>Discard a card, choose a companion in your discard pile and place them onto the field.</t>
+  </si>
+  <si>
+    <t>Summon Steed</t>
+  </si>
+  <si>
+    <t>Search your deck or discard pile for Vela Venta and put them onto the field.</t>
+  </si>
+  <si>
+    <t>Wrathful Smite</t>
+  </si>
+  <si>
+    <t>Your Hero and Vela Venta’s next attack this turn deals 1 extra damage, and the target hit cannot target your hero until the end of your next turn.</t>
+  </si>
+  <si>
+    <t>Build Your House</t>
+  </si>
+  <si>
+    <t>Your hero gains +1 AC till the start of your next turn. Each time your hero would take damage before the start of your next turn, draw 1 card.</t>
+  </si>
+  <si>
+    <t>Divine Smite</t>
+  </si>
+  <si>
+    <t>Your hero's and Bol Wyrtson’s next attack this turn deals 2 extra damage.</t>
+  </si>
+  <si>
+    <t>Familiar Face/Gung-Ho</t>
+  </si>
+  <si>
+    <t>Search your deck for Bol Wyrston and put him onto the field. If Bol is already on the field, he may take an extra attack this turn and heal your hero 5 HP.</t>
+  </si>
+  <si>
+    <t>I Go Low, You Go High</t>
+  </si>
+  <si>
+    <t>If Bol Wyrtson is in play, both Your hero and Bol gain +1 attack and attack a signle target of your choice. Neither you hero of Bol takes retaliation damage.</t>
+  </si>
+  <si>
+    <t>Lay On Hands</t>
+  </si>
+  <si>
+    <t>You hero or one friendly companion of your choice regains 4 health.</t>
+  </si>
+  <si>
+    <t>Like Father Like Sons</t>
+  </si>
+  <si>
+    <t>If Harry Oakhardt is in play, look at the top 2 cards of your deck. Put any amount in your hand or discard. For how many were discarded, Harry and your hero gain that much additional attacks</t>
+  </si>
+  <si>
+    <t>Prodigal Son/Poem for Your Thoughts</t>
+  </si>
+  <si>
+    <t>Search your deck for Harry Oakhardt and put him onto the field. If he is already in play, your companions gain 1d4 attack and AC until the start of your next turn.</t>
+  </si>
+  <si>
+    <t>Relentless Avenger</t>
+  </si>
+  <si>
+    <t>when an enemy attacks one of your companions, Your hero immediately attacks them and deals an additional 1d6 damage.</t>
+  </si>
+  <si>
+    <t>Shield Master</t>
+  </si>
+  <si>
+    <t>ignore the next damage you would take.</t>
+  </si>
+  <si>
+    <t>Arena Ward</t>
+  </si>
+  <si>
+    <t>After have taken 2 instances of damage, equip this. +2 attack, on your turn as an action, you can take a summoned spider from your discard pile or deck and put in on your field.</t>
+  </si>
+  <si>
+    <t>Gareth</t>
+  </si>
+  <si>
+    <t>Diadem</t>
+  </si>
+  <si>
+    <t>After having summoned two minions this game, equip this. When you summon a minion, look at the top card of an opponents deck of your choice. If its a minion, you can summon it to your side of the field but pass control back to its owner at the end of the turn.</t>
+  </si>
+  <si>
+    <t>Summoned Spiders</t>
+  </si>
+  <si>
+    <t>Palppy</t>
+  </si>
+  <si>
+    <t>When this dies from an opponent, shuffle this card into your deck instead.</t>
+  </si>
+  <si>
+    <t>Nadia</t>
+  </si>
+  <si>
+    <t>When this dies, you can play "Lolth's Champion" from anywhere without sacrificing a minion on your next turn.</t>
+  </si>
+  <si>
+    <t>Jeremiah</t>
+  </si>
+  <si>
+    <t>When this dies, shuffle this into the opponents deck. When drawn it is summoned to your field, they draw again.</t>
+  </si>
+  <si>
+    <t>Hesli Arachnea</t>
+  </si>
+  <si>
+    <t>When this is summoned, add a minion from your deck to your hand or give your hero +2 attack and +2 AC until the end of your turn.</t>
+  </si>
+  <si>
+    <t>To the Promised Land</t>
+  </si>
+  <si>
+    <t>Everyone discards their hand, then they draw 4 cards.</t>
+  </si>
+  <si>
+    <t>Reliable Talent</t>
+  </si>
+  <si>
+    <t>Any damage your hero does before the end of your next turn, cannot be reduced in anyway. Including AC.</t>
+  </si>
+  <si>
+    <t>Uncanny Dodge</t>
+  </si>
+  <si>
+    <t>Any time you or a minion would take damage, half the damage.</t>
+  </si>
+  <si>
+    <t>Evasion</t>
+  </si>
+  <si>
+    <t>Ignore the next instance of damage you take, This stays until you would take damage.</t>
+  </si>
+  <si>
+    <t>Sneak Attack</t>
+  </si>
+  <si>
+    <t>If you had a minion die within the last turn, your next attack this turn deals an additional 2d6 damage.</t>
+  </si>
+  <si>
+    <t>Elven Accuracy</t>
+  </si>
+  <si>
+    <t>Until the end of your next turn, you can roll an additional time for rolled damage and take the higher roll.</t>
+  </si>
+  <si>
+    <t>Magically Non-magical</t>
+  </si>
+  <si>
+    <t>Check the top card of your deck, then either play it or add it to your hand. If it was not a minion, draw again once.</t>
+  </si>
+  <si>
+    <t>Lolth's Champion</t>
+  </si>
+  <si>
+    <t>If you have at least one minion on your field, sacrifice it, your next attack does 3d6 damage.</t>
+  </si>
+  <si>
+    <t>Thief's Reflexes</t>
+  </si>
+  <si>
+    <t>During another opponents turn, you can play a card during their action phase. You choose when it gets played.</t>
+  </si>
+  <si>
+    <t>Lucky</t>
+  </si>
+  <si>
+    <t>Choose a card randomly in your opponents hand and discard it. Then discard the top card of your opponents deck.</t>
+  </si>
+  <si>
+    <t>Fast Hands Potion</t>
+  </si>
+  <si>
+    <t>Choose a minion in you discard pile and add it to your hand. If there are none, draw a card instead.</t>
+  </si>
+  <si>
+    <t>30 to Stealth</t>
+  </si>
+  <si>
+    <t>Skip your combat phase this turn, you and your minions are immune to damage until the start of your next turn, then add a sneak attack from your deck to your hand.</t>
+  </si>
+  <si>
+    <t>Sabotage</t>
+  </si>
+  <si>
+    <t>When an opponent or opponent's minion attacks you or one of your minions, force them to attack another opponent. If there is none, they lose their attack</t>
+  </si>
+  <si>
+    <t>Reaction Sneak Attack</t>
+  </si>
+  <si>
+    <t>When an opponenent hero attacks one of your minions, you immediately make an attack against them that does an additional 2d6 damage.</t>
+  </si>
+  <si>
+    <t>Lifestealing Sword</t>
+  </si>
+  <si>
+    <t>When you reach 20 health, equip this Weapon. +2 Attack, Whenever you attack with this weapon roll a d20, on a 20 you gain +5 attack and heal 5 HP</t>
+  </si>
+  <si>
+    <t>Aleyna</t>
+  </si>
+  <si>
+    <t>Ring of Protection</t>
+  </si>
+  <si>
+    <t>You can discard 3 cards during your turn as an action to equip this. +3 AC</t>
+  </si>
+  <si>
+    <t>Periapt of Wound Closure</t>
+  </si>
+  <si>
+    <t>When you take 6 or more damage on your turn, equip this. Heal 1 HP during your beginning phase and heal 1 HP during your end phase.</t>
+  </si>
+  <si>
+    <t>Irlen</t>
+  </si>
+  <si>
+    <t>When you hero is attacked, you can choose Irlen to be the target instead.</t>
+  </si>
+  <si>
+    <t>Hunter's Bane</t>
+  </si>
+  <si>
+    <t>Look at the top 3 cards of your deck, place one in your hand and then place the rest in any order back on top of the deck.</t>
+  </si>
+  <si>
+    <t>Crimson Rite</t>
+  </si>
+  <si>
+    <t>Lose 5 HP, gain +1 attack permentally.</t>
+  </si>
+  <si>
+    <t>Mutual Suffering</t>
+  </si>
+  <si>
+    <t>Any damage you take until the end of your next turn, also effects an opponent of your choice as well.</t>
+  </si>
+  <si>
+    <t>Reconstruction</t>
+  </si>
+  <si>
+    <t>Heal 5 HP, and skip your next draw phase</t>
+  </si>
+  <si>
+    <t>Rapidity</t>
+  </si>
+  <si>
+    <t>Draw a card, and you can play another card this turn.</t>
+  </si>
+  <si>
+    <t>Choose a card randomly in an opponents hand of your choice and discard it. Then discard the top card of that opponents deck.</t>
+  </si>
+  <si>
+    <t>Action Surge (Aleyna)</t>
+  </si>
+  <si>
+    <t>You can play two additional cards during this action phase, draw a card.</t>
+  </si>
+  <si>
+    <t>Improved Critical</t>
+  </si>
+  <si>
+    <t>The next attack your hero does, does double damage.</t>
+  </si>
+  <si>
+    <t>Cold Rite</t>
+  </si>
+  <si>
+    <t>roll 1d4, lose that much health and send the top card of your opponents deck to the discard pile.</t>
+  </si>
+  <si>
+    <t>Lightning Rite</t>
+  </si>
+  <si>
+    <t>roll 1d4, lose that much health and you can play an extra card on your next turn.</t>
+  </si>
+  <si>
+    <t>Rite Preparation</t>
+  </si>
+  <si>
+    <t>roll 1d4, lose that much health and search your deck for a card with "Rite" in the name, add it to your hand. Then shuffle your deck.</t>
+  </si>
+  <si>
+    <t>Binding</t>
+  </si>
+  <si>
+    <t>An opponent of your choice cannot draw any cards during their next turn.</t>
+  </si>
+  <si>
+    <t>Sweat and Blood</t>
+  </si>
+  <si>
+    <t>Lose 5 HP, Shuffle an opponent of your choice's hand back into their deck and have them draw 4 cards.</t>
+  </si>
+  <si>
+    <t>Show Up the Divine</t>
+  </si>
+  <si>
+    <t>Discard the top 3 cards of your deck and take 3 damage for each one discarded, this can't bring you below 1 health.</t>
+  </si>
+  <si>
+    <t>Remarkable Warrior</t>
+  </si>
+  <si>
+    <t>Choose up to 2 cards from both your hand and discard pile, shuffle them back into your deck and redraw. Take 2 damage for each card drawn.</t>
+  </si>
+  <si>
+    <t>Glaives</t>
+  </si>
+  <si>
+    <t>+1 Attack, When you attack a minion, your left over damage goes to the opponent</t>
+  </si>
+  <si>
+    <t>Akari</t>
+  </si>
+  <si>
+    <t>Fists</t>
+  </si>
+  <si>
+    <t>+1 attack, You can attack minions one more time per turn.</t>
+  </si>
+  <si>
+    <t>Longbow</t>
+  </si>
+  <si>
+    <t>+1 attack, While attacking, you take no damage in return once per turn.</t>
+  </si>
+  <si>
+    <t>Exotic Clothing</t>
+  </si>
+  <si>
+    <t>+1 AC</t>
+  </si>
+  <si>
+    <t>Action Surge (Akari)</t>
+  </si>
+  <si>
+    <t>Your hero can make an additional attack during this combat phase</t>
+  </si>
+  <si>
+    <t>Heal 1d10 HP.</t>
+  </si>
+  <si>
+    <t>Two-Weapon Fighting</t>
+  </si>
+  <si>
+    <t>Equip this card to your hero. your hero can now equip two weapons at once.</t>
+  </si>
+  <si>
+    <t>Fighting Spirit</t>
+  </si>
+  <si>
+    <t>Your Hero heals 1 HP and your attacks this turn do 1 more damage. Add +1 for each "Fighting Spirit" card you've played this game.</t>
+  </si>
+  <si>
+    <t>Elegent Courtier</t>
+  </si>
+  <si>
+    <t>Play another card from you hand and then your discard pile, then you and an opponent of your choice draws a card.</t>
+  </si>
+  <si>
+    <t>Tireless Spirit</t>
+  </si>
+  <si>
+    <t>Reshuffle all discarded "Fighting Spirit" cards back into your deck, then draw a card.</t>
+  </si>
+  <si>
+    <t>Rapid Strike</t>
+  </si>
+  <si>
+    <t>If you played a "Fighting Spirit" within your last turn, you can attack an amount of times equal to each "Fighting Spirit" card you've played this game.</t>
+  </si>
+  <si>
+    <t>Strength Before Death</t>
+  </si>
+  <si>
+    <t>Equip this card to your hero. If your hero is defeated, they heal 5 HP and it becomes your turn immediantly. Return to the proper turn order after your turn.</t>
+  </si>
+  <si>
+    <t>Unique Martial Techniques</t>
+  </si>
+  <si>
+    <t>Add a "Fighting Spirit" card from your deck or discard pile to your hand.</t>
+  </si>
+  <si>
+    <t>Martially Prepared</t>
+  </si>
+  <si>
+    <t>Draw 2 cards, then your hero can attack an amount of times equal to the amount of cards in your hand until the end of your turn.</t>
+  </si>
+  <si>
+    <t>Lasting Imprint</t>
+  </si>
+  <si>
+    <t>Discard a card and put it into your opponents hand, they cannot play it and must spend an action to discard it. During each of thats opponent's beginning phase, they take 1 damage.</t>
+  </si>
+  <si>
+    <t>Strong, Silent Type</t>
+  </si>
+  <si>
+    <t>Gain 2 AC until you attack.</t>
+  </si>
+  <si>
+    <t>Personal History</t>
+  </si>
+  <si>
+    <t>Cards in you hand and deck can't be manipulated by opponent cards until the end of your next turn, draw a card.</t>
+  </si>
+  <si>
+    <t>Fire Breath (Aiged)</t>
+  </si>
+  <si>
+    <t>Fire Breath (Draveik)</t>
+  </si>
+  <si>
+    <t>(Craftable) When drawn, place this card on the field. It is dormant and can't be effected. Whenever a "Crafting Component" card is played, attach to this card. When this card gets 2 "Crafting Components", it becomes no longer dormant and equips to the hero. While not dormant, you can use a reaction to trap a card being played inside. While trapped the card cannot be played, and it takes an action for the cards owner to add it back to their hand. Only one card can be held at a time.</t>
   </si>
 </sst>
 </file>
@@ -324,8 +1344,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,13 +1627,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="H180" sqref="H180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -636,745 +1660,3452 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>63</v>
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" t="s">
         <v>86</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="C33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>155</v>
+      </c>
+      <c r="F38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>157</v>
+      </c>
+      <c r="F39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>159</v>
+      </c>
+      <c r="F40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>161</v>
+      </c>
+      <c r="F41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>163</v>
+      </c>
+      <c r="F42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>165</v>
+      </c>
+      <c r="F43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>167</v>
+      </c>
+      <c r="F44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>168</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
+        <v>171</v>
+      </c>
+      <c r="F46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>172</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>173</v>
+      </c>
+      <c r="F47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>175</v>
+      </c>
+      <c r="F48" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>178</v>
+      </c>
+      <c r="F49" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>179</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>180</v>
+      </c>
+      <c r="F50" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>182</v>
+      </c>
+      <c r="F51" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>184</v>
+      </c>
+      <c r="F52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>185</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>186</v>
+      </c>
+      <c r="F53" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F54" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>189</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" t="s">
+        <v>190</v>
+      </c>
+      <c r="F55" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>192</v>
+      </c>
+      <c r="F56" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>194</v>
+      </c>
+      <c r="F57" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>195</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>196</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" t="s">
+        <v>197</v>
+      </c>
+      <c r="F59" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>198</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" t="s">
+        <v>199</v>
+      </c>
+      <c r="F60" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>200</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" t="s">
+        <v>201</v>
+      </c>
+      <c r="F61" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>202</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" t="s">
+        <v>203</v>
+      </c>
+      <c r="F62" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>204</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" t="s">
+        <v>205</v>
+      </c>
+      <c r="F63" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>206</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" t="s">
+        <v>207</v>
+      </c>
+      <c r="F64" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>208</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" t="s">
+        <v>209</v>
+      </c>
+      <c r="F65" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>210</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
+        <v>211</v>
+      </c>
+      <c r="F66" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>212</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" t="s">
+        <v>213</v>
+      </c>
+      <c r="F67" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>214</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
+        <v>215</v>
+      </c>
+      <c r="F68" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>55</v>
+      </c>
+      <c r="F69" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>57</v>
+      </c>
+      <c r="F70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>58</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>59</v>
+      </c>
+      <c r="F71" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>60</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>61</v>
+      </c>
+      <c r="F72" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>63</v>
+      </c>
+      <c r="F73" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>64</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>65</v>
+      </c>
+      <c r="F74" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>425</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>73</v>
+      </c>
+      <c r="F75" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>66</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>67</v>
+      </c>
+      <c r="F76" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>68</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>69</v>
+      </c>
+      <c r="F77" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>70</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>71</v>
+      </c>
+      <c r="F78" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>72</v>
+      </c>
+      <c r="F79" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>76</v>
+      </c>
+      <c r="F80" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>78</v>
+      </c>
+      <c r="F81" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>216</v>
+      </c>
+      <c r="F82" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83" t="s">
+        <v>82</v>
+      </c>
+      <c r="F83" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" t="s">
+        <v>83</v>
+      </c>
+      <c r="F84" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>427</v>
+      </c>
+      <c r="F90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>52</v>
+      </c>
+      <c r="F91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>51</v>
+      </c>
+      <c r="F92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>50</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>27</v>
+      </c>
+      <c r="F94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>29</v>
+      </c>
+      <c r="F95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>31</v>
+      </c>
+      <c r="F96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>32</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>33</v>
+      </c>
+      <c r="F97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>34</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>35</v>
+      </c>
+      <c r="F98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>36</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>217</v>
+      </c>
+      <c r="F99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>37</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" t="s">
+        <v>43</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100" t="s">
         <v>44</v>
       </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="F100" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>39</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101" t="s">
+        <v>45</v>
+      </c>
+      <c r="F101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>38</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102" t="s">
+        <v>46</v>
+      </c>
+      <c r="F102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>40</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>47</v>
+      </c>
+      <c r="F103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>41</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>48</v>
+      </c>
+      <c r="F104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>42</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105" t="s">
+        <v>49</v>
+      </c>
+      <c r="F105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>218</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106" t="s">
+        <v>219</v>
+      </c>
+      <c r="F106" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>221</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>222</v>
+      </c>
+      <c r="F107" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>223</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>224</v>
+      </c>
+      <c r="F108" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>225</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>226</v>
+      </c>
+      <c r="F109" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>227</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110" t="s">
+        <v>228</v>
+      </c>
+      <c r="F110" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>229</v>
+      </c>
+      <c r="B111" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" t="s">
+        <v>230</v>
+      </c>
+      <c r="F111" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>231</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" t="s">
+        <v>232</v>
+      </c>
+      <c r="F112" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>426</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" t="s">
+        <v>233</v>
+      </c>
+      <c r="F113" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>234</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" t="s">
+        <v>235</v>
+      </c>
+      <c r="F114" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>236</v>
+      </c>
+      <c r="B115" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" t="s">
+        <v>237</v>
+      </c>
+      <c r="F115" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>238</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" t="s">
+        <v>239</v>
+      </c>
+      <c r="F116" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>240</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" t="s">
+        <v>241</v>
+      </c>
+      <c r="F117" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>242</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" t="s">
+        <v>243</v>
+      </c>
+      <c r="F118" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>244</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>8</v>
+      </c>
+      <c r="E119" t="s">
+        <v>245</v>
+      </c>
+      <c r="F119" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>246</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120">
+        <v>6</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120" t="s">
+        <v>247</v>
+      </c>
+      <c r="F120" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>248</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
+      </c>
+      <c r="E121" t="s">
+        <v>249</v>
+      </c>
+      <c r="F121" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>250</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <v>5</v>
+      </c>
+      <c r="E122" t="s">
+        <v>251</v>
+      </c>
+      <c r="F122" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>252</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" t="s">
+        <v>253</v>
+      </c>
+      <c r="F123" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>254</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" t="s">
+        <v>255</v>
+      </c>
+      <c r="F124" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>256</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" t="s">
+        <v>257</v>
+      </c>
+      <c r="F125" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>258</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" t="s">
+        <v>259</v>
+      </c>
+      <c r="F126" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>260</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" t="s">
+        <v>261</v>
+      </c>
+      <c r="F127" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>262</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128" t="s">
+        <v>263</v>
+      </c>
+      <c r="F128" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>264</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" t="s">
+        <v>265</v>
+      </c>
+      <c r="F129" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>266</v>
+      </c>
+      <c r="B130" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>267</v>
+      </c>
+      <c r="F130" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>269</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131" t="s">
+        <v>270</v>
+      </c>
+      <c r="F131" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>271</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132" t="s">
+        <v>272</v>
+      </c>
+      <c r="F132" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>273</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>4</v>
+      </c>
+      <c r="D133">
+        <v>6</v>
+      </c>
+      <c r="E133" t="s">
+        <v>274</v>
+      </c>
+      <c r="F133" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>275</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
+      <c r="D134">
+        <v>4</v>
+      </c>
+      <c r="E134" t="s">
+        <v>276</v>
+      </c>
+      <c r="F134" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>277</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>3</v>
+      </c>
+      <c r="E135" t="s">
+        <v>278</v>
+      </c>
+      <c r="F135" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>279</v>
+      </c>
+      <c r="B136" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136" t="s">
+        <v>280</v>
+      </c>
+      <c r="F136" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>281</v>
+      </c>
+      <c r="B137" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" t="s">
+        <v>282</v>
+      </c>
+      <c r="F137" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>283</v>
+      </c>
+      <c r="B138" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" t="s">
+        <v>284</v>
+      </c>
+      <c r="F138" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>285</v>
+      </c>
+      <c r="B139" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" t="s">
+        <v>286</v>
+      </c>
+      <c r="F139" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>287</v>
+      </c>
+      <c r="B140" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140" t="s">
+        <v>288</v>
+      </c>
+      <c r="F140" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>289</v>
+      </c>
+      <c r="B141" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" t="s">
+        <v>290</v>
+      </c>
+      <c r="F141" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>291</v>
+      </c>
+      <c r="B142" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" t="s">
+        <v>292</v>
+      </c>
+      <c r="F142" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>293</v>
+      </c>
+      <c r="B143" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" t="s">
+        <v>294</v>
+      </c>
+      <c r="F143" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>295</v>
+      </c>
+      <c r="B144" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" t="s">
+        <v>296</v>
+      </c>
+      <c r="F144" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>297</v>
+      </c>
+      <c r="B145" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145" t="s">
+        <v>298</v>
+      </c>
+      <c r="F145" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>299</v>
+      </c>
+      <c r="B146" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" t="s">
+        <v>300</v>
+      </c>
+      <c r="F146" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>301</v>
+      </c>
+      <c r="B147" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" t="s">
+        <v>302</v>
+      </c>
+      <c r="F147" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>303</v>
+      </c>
+      <c r="B148" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148" t="s">
+        <v>304</v>
+      </c>
+      <c r="F148" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>305</v>
+      </c>
+      <c r="B149" t="s">
+        <v>6</v>
+      </c>
+      <c r="E149" t="s">
+        <v>306</v>
+      </c>
+      <c r="F149" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>307</v>
+      </c>
+      <c r="B150" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150" t="s">
+        <v>308</v>
+      </c>
+      <c r="F150" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>309</v>
+      </c>
+      <c r="B151" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" t="s">
+        <v>310</v>
+      </c>
+      <c r="F151" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>311</v>
+      </c>
+      <c r="B152" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>312</v>
+      </c>
+      <c r="F152" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>314</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153" t="s">
+        <v>315</v>
+      </c>
+      <c r="F153" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>316</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="F154" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>317</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155">
+        <v>5</v>
+      </c>
+      <c r="D155">
+        <v>3</v>
+      </c>
+      <c r="E155" t="s">
+        <v>318</v>
+      </c>
+      <c r="F155" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>319</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="E156" t="s">
+        <v>320</v>
+      </c>
+      <c r="F156" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>321</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157">
+        <v>2</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157" t="s">
+        <v>322</v>
+      </c>
+      <c r="F157" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>323</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158">
+        <v>4</v>
+      </c>
+      <c r="D158">
+        <v>4</v>
+      </c>
+      <c r="E158" t="s">
+        <v>324</v>
+      </c>
+      <c r="F158" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>325</v>
+      </c>
+      <c r="B159" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159" t="s">
+        <v>326</v>
+      </c>
+      <c r="F159" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>327</v>
+      </c>
+      <c r="B160" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160" t="s">
+        <v>328</v>
+      </c>
+      <c r="F160" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>329</v>
+      </c>
+      <c r="B161" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" t="s">
+        <v>330</v>
+      </c>
+      <c r="F161" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>331</v>
+      </c>
+      <c r="B162" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" t="s">
+        <v>332</v>
+      </c>
+      <c r="F162" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>333</v>
+      </c>
+      <c r="B163" t="s">
+        <v>6</v>
+      </c>
+      <c r="E163" t="s">
+        <v>334</v>
+      </c>
+      <c r="F163" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>335</v>
+      </c>
+      <c r="B164" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164" t="s">
+        <v>336</v>
+      </c>
+      <c r="F164" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>337</v>
+      </c>
+      <c r="B165" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" t="s">
+        <v>338</v>
+      </c>
+      <c r="F165" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>339</v>
+      </c>
+      <c r="B166" t="s">
+        <v>6</v>
+      </c>
+      <c r="E166" t="s">
+        <v>340</v>
+      </c>
+      <c r="F166" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>341</v>
+      </c>
+      <c r="B167" t="s">
+        <v>6</v>
+      </c>
+      <c r="E167" t="s">
+        <v>342</v>
+      </c>
+      <c r="F167" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>343</v>
+      </c>
+      <c r="B168" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168" t="s">
+        <v>344</v>
+      </c>
+      <c r="F168" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>345</v>
+      </c>
+      <c r="B169" t="s">
+        <v>6</v>
+      </c>
+      <c r="E169" t="s">
+        <v>346</v>
+      </c>
+      <c r="F169" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>347</v>
+      </c>
+      <c r="B170" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" t="s">
+        <v>348</v>
+      </c>
+      <c r="F170" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>349</v>
+      </c>
+      <c r="B171" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" t="s">
+        <v>350</v>
+      </c>
+      <c r="F171" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>351</v>
+      </c>
+      <c r="B172" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172" t="s">
+        <v>352</v>
+      </c>
+      <c r="F172" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>353</v>
+      </c>
+      <c r="B173" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173" t="s">
+        <v>354</v>
+      </c>
+      <c r="F173" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>356</v>
+      </c>
+      <c r="B174" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>3</v>
+      </c>
+      <c r="E174" t="s">
+        <v>357</v>
+      </c>
+      <c r="F174" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>358</v>
+      </c>
+      <c r="B175" t="s">
+        <v>8</v>
+      </c>
+      <c r="E175" t="s">
+        <v>359</v>
+      </c>
+      <c r="F175" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>360</v>
+      </c>
+      <c r="B176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176">
+        <v>4</v>
+      </c>
+      <c r="D176">
+        <v>5</v>
+      </c>
+      <c r="E176" t="s">
+        <v>361</v>
+      </c>
+      <c r="F176" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>362</v>
+      </c>
+      <c r="B177" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" t="s">
+        <v>363</v>
+      </c>
+      <c r="F177" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>364</v>
+      </c>
+      <c r="B178" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178" t="s">
+        <v>365</v>
+      </c>
+      <c r="F178" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>366</v>
+      </c>
+      <c r="B179" t="s">
+        <v>6</v>
+      </c>
+      <c r="E179" t="s">
+        <v>367</v>
+      </c>
+      <c r="F179" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>368</v>
+      </c>
+      <c r="B180" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180" t="s">
+        <v>369</v>
+      </c>
+      <c r="F180" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>370</v>
+      </c>
+      <c r="B181" t="s">
+        <v>6</v>
+      </c>
+      <c r="E181" t="s">
+        <v>371</v>
+      </c>
+      <c r="F181" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>343</v>
+      </c>
+      <c r="B182" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182" t="s">
+        <v>372</v>
+      </c>
+      <c r="F182" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>231</v>
+      </c>
+      <c r="B183" t="s">
+        <v>6</v>
+      </c>
+      <c r="E183" t="s">
+        <v>232</v>
+      </c>
+      <c r="F183" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>225</v>
+      </c>
+      <c r="B184" t="s">
+        <v>6</v>
+      </c>
+      <c r="E184" t="s">
+        <v>226</v>
+      </c>
+      <c r="F184" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>373</v>
+      </c>
+      <c r="B185" t="s">
+        <v>6</v>
+      </c>
+      <c r="E185" t="s">
+        <v>374</v>
+      </c>
+      <c r="F185" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>375</v>
+      </c>
+      <c r="B186" t="s">
+        <v>6</v>
+      </c>
+      <c r="E186" t="s">
+        <v>376</v>
+      </c>
+      <c r="F186" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>377</v>
+      </c>
+      <c r="B187" t="s">
+        <v>6</v>
+      </c>
+      <c r="E187" t="s">
+        <v>378</v>
+      </c>
+      <c r="F187" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>379</v>
+      </c>
+      <c r="B188" t="s">
+        <v>6</v>
+      </c>
+      <c r="E188" t="s">
+        <v>380</v>
+      </c>
+      <c r="F188" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>381</v>
+      </c>
+      <c r="B189" t="s">
+        <v>6</v>
+      </c>
+      <c r="E189" t="s">
+        <v>382</v>
+      </c>
+      <c r="F189" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>383</v>
+      </c>
+      <c r="B190" t="s">
+        <v>6</v>
+      </c>
+      <c r="E190" t="s">
+        <v>384</v>
+      </c>
+      <c r="F190" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>385</v>
+      </c>
+      <c r="B191" t="s">
+        <v>6</v>
+      </c>
+      <c r="E191" t="s">
+        <v>386</v>
+      </c>
+      <c r="F191" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>387</v>
+      </c>
+      <c r="B192" t="s">
+        <v>6</v>
+      </c>
+      <c r="E192" t="s">
+        <v>388</v>
+      </c>
+      <c r="F192" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>389</v>
+      </c>
+      <c r="B193" t="s">
+        <v>6</v>
+      </c>
+      <c r="E193" t="s">
+        <v>390</v>
+      </c>
+      <c r="F193" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>391</v>
+      </c>
+      <c r="B194" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>392</v>
+      </c>
+      <c r="F194" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>394</v>
+      </c>
+      <c r="B195" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>395</v>
+      </c>
+      <c r="F195" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>396</v>
+      </c>
+      <c r="B196" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>397</v>
+      </c>
+      <c r="F196" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>398</v>
+      </c>
+      <c r="B197" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197" t="s">
+        <v>399</v>
+      </c>
+      <c r="F197" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>400</v>
+      </c>
+      <c r="B198" t="s">
+        <v>6</v>
+      </c>
+      <c r="E198" t="s">
+        <v>374</v>
+      </c>
+      <c r="F198" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>231</v>
+      </c>
+      <c r="B199" t="s">
+        <v>6</v>
+      </c>
+      <c r="E199" t="s">
+        <v>401</v>
+      </c>
+      <c r="F199" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>225</v>
+      </c>
+      <c r="B200" t="s">
+        <v>6</v>
+      </c>
+      <c r="E200" t="s">
+        <v>402</v>
+      </c>
+      <c r="F200" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>403</v>
+      </c>
+      <c r="B201" t="s">
+        <v>6</v>
+      </c>
+      <c r="E201" t="s">
+        <v>404</v>
+      </c>
+      <c r="F201" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>229</v>
+      </c>
+      <c r="B202" t="s">
+        <v>10</v>
+      </c>
+      <c r="E202" t="s">
+        <v>230</v>
+      </c>
+      <c r="F202" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>405</v>
+      </c>
+      <c r="B203" t="s">
+        <v>6</v>
+      </c>
+      <c r="E203" t="s">
+        <v>406</v>
+      </c>
+      <c r="F203" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>407</v>
+      </c>
+      <c r="B204" t="s">
+        <v>6</v>
+      </c>
+      <c r="E204" t="s">
+        <v>408</v>
+      </c>
+      <c r="F204" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>409</v>
+      </c>
+      <c r="B205" t="s">
+        <v>6</v>
+      </c>
+      <c r="E205" t="s">
+        <v>410</v>
+      </c>
+      <c r="F205" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>411</v>
+      </c>
+      <c r="B206" t="s">
+        <v>6</v>
+      </c>
+      <c r="E206" t="s">
+        <v>412</v>
+      </c>
+      <c r="F206" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>413</v>
+      </c>
+      <c r="B207" t="s">
+        <v>6</v>
+      </c>
+      <c r="E207" t="s">
+        <v>414</v>
+      </c>
+      <c r="F207" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>415</v>
+      </c>
+      <c r="B208" t="s">
+        <v>6</v>
+      </c>
+      <c r="E208" t="s">
+        <v>416</v>
+      </c>
+      <c r="F208" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>417</v>
+      </c>
+      <c r="B209" t="s">
+        <v>6</v>
+      </c>
+      <c r="E209" t="s">
+        <v>418</v>
+      </c>
+      <c r="F209" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>419</v>
+      </c>
+      <c r="B210" t="s">
+        <v>6</v>
+      </c>
+      <c r="E210" t="s">
+        <v>420</v>
+      </c>
+      <c r="F210" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>421</v>
+      </c>
+      <c r="B211" t="s">
+        <v>6</v>
+      </c>
+      <c r="E211" t="s">
+        <v>422</v>
+      </c>
+      <c r="F211" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>423</v>
+      </c>
+      <c r="B212" t="s">
+        <v>6</v>
+      </c>
+      <c r="E212" t="s">
+        <v>424</v>
+      </c>
+      <c r="F212" t="s">
+        <v>393</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cards.xlsx
+++ b/cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snidersa\git\CrimsonKnights\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D847FC6-4DD1-42F8-BC73-B43D8DA26F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1736FBA7-D88B-46C7-A63A-6B27ED2C3D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -285,9 +285,6 @@
     <t>While attacking, you take no damage in return.</t>
   </si>
   <si>
-    <t>Tyrael</t>
-  </si>
-  <si>
     <t>Gauntlet</t>
   </si>
   <si>
@@ -1309,6 +1306,9 @@
   </si>
   <si>
     <t>(Craftable) When drawn, place this card on the field. It is dormant and can't be effected. Whenever a "Crafting Component" card is played, attach to this card. When this card gets 2 "Crafting Components", it becomes no longer dormant and equips to the hero. While not dormant, you can use a reaction to trap a card being played inside. While trapped the card cannot be played, and it takes an action for the cards owner to add it back to their hand. Only one card can be held at a time.</t>
+  </si>
+  <si>
+    <t>Tyreal</t>
   </si>
 </sst>
 </file>
@@ -1344,9 +1344,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1629,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="H180" sqref="H180"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1672,12 +1673,12 @@
         <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1686,32 +1687,32 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1720,15 +1721,15 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1737,15 +1738,15 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1757,15 +1758,15 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1777,15 +1778,15 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -1797,239 +1798,239 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
         <v>100</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>101</v>
-      </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
         <v>102</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>103</v>
-      </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
         <v>104</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>105</v>
-      </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
         <v>106</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>107</v>
-      </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
         <v>108</v>
       </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>109</v>
-      </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
         <v>110</v>
       </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>111</v>
-      </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
         <v>114</v>
       </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>115</v>
-      </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
         <v>116</v>
       </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>117</v>
-      </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
         <v>118</v>
       </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>119</v>
-      </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
         <v>120</v>
       </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
-        <v>121</v>
-      </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
         <v>122</v>
       </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" t="s">
-        <v>123</v>
-      </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
         <v>124</v>
       </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" t="s">
-        <v>125</v>
-      </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
         <v>128</v>
       </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" t="s">
-        <v>129</v>
-      </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
         <v>130</v>
       </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" t="s">
-        <v>131</v>
-      </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
@@ -2038,15 +2039,15 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" t="s">
         <v>133</v>
-      </c>
-      <c r="F26" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -2055,15 +2056,15 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -2075,12 +2076,12 @@
         <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -2092,15 +2093,15 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -2112,15 +2113,15 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -2132,15 +2133,15 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -2152,10 +2153,10 @@
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2169,194 +2170,194 @@
         <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
         <v>146</v>
       </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" t="s">
-        <v>147</v>
-      </c>
       <c r="F34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
         <v>148</v>
       </c>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" t="s">
-        <v>149</v>
-      </c>
       <c r="F35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
         <v>152</v>
       </c>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" t="s">
-        <v>153</v>
-      </c>
       <c r="F37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
         <v>154</v>
       </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" t="s">
-        <v>155</v>
-      </c>
       <c r="F38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
         <v>160</v>
       </c>
-      <c r="B41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" t="s">
-        <v>161</v>
-      </c>
       <c r="F41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
         <v>162</v>
       </c>
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" t="s">
-        <v>163</v>
-      </c>
       <c r="F42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
         <v>164</v>
       </c>
-      <c r="B43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" t="s">
-        <v>165</v>
-      </c>
       <c r="F43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
         <v>166</v>
       </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" t="s">
-        <v>167</v>
-      </c>
       <c r="F44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
         <v>168</v>
       </c>
-      <c r="B45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" t="s">
-        <v>169</v>
-      </c>
       <c r="F45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
         <v>170</v>
       </c>
-      <c r="B46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" t="s">
-        <v>171</v>
-      </c>
       <c r="F46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -2368,15 +2369,15 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
@@ -2385,15 +2386,15 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
+        <v>174</v>
+      </c>
+      <c r="F48" t="s">
         <v>175</v>
-      </c>
-      <c r="F48" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
@@ -2402,15 +2403,15 @@
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -2419,15 +2420,15 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -2439,15 +2440,15 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -2459,15 +2460,15 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
@@ -2479,71 +2480,71 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" t="s">
         <v>189</v>
       </c>
-      <c r="B55" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" t="s">
-        <v>190</v>
-      </c>
       <c r="F55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>190</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
         <v>191</v>
       </c>
-      <c r="B56" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" t="s">
-        <v>192</v>
-      </c>
       <c r="F56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>192</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
         <v>193</v>
       </c>
-      <c r="B57" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" t="s">
-        <v>194</v>
-      </c>
       <c r="F57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
@@ -2552,147 +2553,147 @@
         <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" t="s">
         <v>196</v>
       </c>
-      <c r="B59" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" t="s">
-        <v>197</v>
-      </c>
       <c r="F59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>197</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" t="s">
         <v>198</v>
       </c>
-      <c r="B60" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" t="s">
-        <v>199</v>
-      </c>
       <c r="F60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>199</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" t="s">
         <v>200</v>
       </c>
-      <c r="B61" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" t="s">
-        <v>201</v>
-      </c>
       <c r="F61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>201</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" t="s">
         <v>202</v>
       </c>
-      <c r="B62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62" t="s">
-        <v>203</v>
-      </c>
       <c r="F62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>203</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" t="s">
         <v>204</v>
       </c>
-      <c r="B63" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63" t="s">
-        <v>205</v>
-      </c>
       <c r="F63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>205</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" t="s">
         <v>206</v>
       </c>
-      <c r="B64" t="s">
-        <v>6</v>
-      </c>
-      <c r="E64" t="s">
-        <v>207</v>
-      </c>
       <c r="F64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>207</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" t="s">
         <v>208</v>
       </c>
-      <c r="B65" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" t="s">
-        <v>209</v>
-      </c>
       <c r="F65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>209</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
         <v>210</v>
       </c>
-      <c r="B66" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" t="s">
-        <v>211</v>
-      </c>
       <c r="F66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>211</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" t="s">
         <v>212</v>
       </c>
-      <c r="B67" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" t="s">
-        <v>213</v>
-      </c>
       <c r="F67" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>213</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
         <v>214</v>
       </c>
-      <c r="B68" t="s">
-        <v>6</v>
-      </c>
-      <c r="E68" t="s">
-        <v>215</v>
-      </c>
       <c r="F68" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2817,7 +2818,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -2969,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F82" t="s">
         <v>54</v>
@@ -3129,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F90" t="s">
         <v>11</v>
@@ -3309,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F99" t="s">
         <v>11</v>
@@ -3437,7 +3438,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B106" t="s">
         <v>9</v>
@@ -3449,15 +3450,15 @@
         <v>0</v>
       </c>
       <c r="E106" t="s">
+        <v>218</v>
+      </c>
+      <c r="F106" t="s">
         <v>219</v>
-      </c>
-      <c r="F106" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B107" t="s">
         <v>9</v>
@@ -3469,15 +3470,15 @@
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F107" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
@@ -3489,167 +3490,167 @@
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F108" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
+        <v>224</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109" t="s">
         <v>225</v>
       </c>
-      <c r="B109" t="s">
-        <v>6</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="E109" t="s">
-        <v>226</v>
-      </c>
       <c r="F109" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>226</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110" t="s">
         <v>227</v>
       </c>
-      <c r="B110" t="s">
-        <v>6</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110" t="s">
-        <v>228</v>
-      </c>
       <c r="F110" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
+        <v>230</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" t="s">
         <v>231</v>
       </c>
-      <c r="B112" t="s">
-        <v>6</v>
-      </c>
-      <c r="E112" t="s">
-        <v>232</v>
-      </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
       </c>
       <c r="E113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>233</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" t="s">
         <v>234</v>
       </c>
-      <c r="B114" t="s">
-        <v>6</v>
-      </c>
-      <c r="E114" t="s">
-        <v>235</v>
-      </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
+        <v>237</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" t="s">
         <v>238</v>
       </c>
-      <c r="B116" t="s">
-        <v>6</v>
-      </c>
-      <c r="E116" t="s">
-        <v>239</v>
-      </c>
       <c r="F116" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
+        <v>239</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" t="s">
         <v>240</v>
       </c>
-      <c r="B117" t="s">
-        <v>6</v>
-      </c>
-      <c r="E117" t="s">
-        <v>241</v>
-      </c>
       <c r="F117" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
+        <v>241</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" t="s">
         <v>242</v>
       </c>
-      <c r="B118" t="s">
-        <v>6</v>
-      </c>
-      <c r="E118" t="s">
-        <v>243</v>
-      </c>
       <c r="F118" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B119" t="s">
         <v>5</v>
@@ -3661,15 +3662,15 @@
         <v>8</v>
       </c>
       <c r="E119" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F119" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
@@ -3681,15 +3682,15 @@
         <v>2</v>
       </c>
       <c r="E120" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F120" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
@@ -3701,15 +3702,15 @@
         <v>3</v>
       </c>
       <c r="E121" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F121" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
@@ -3721,113 +3722,113 @@
         <v>5</v>
       </c>
       <c r="E122" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F122" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
+        <v>251</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" t="s">
         <v>252</v>
       </c>
-      <c r="B123" t="s">
-        <v>6</v>
-      </c>
-      <c r="E123" t="s">
-        <v>253</v>
-      </c>
       <c r="F123" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
+        <v>253</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" t="s">
         <v>254</v>
       </c>
-      <c r="B124" t="s">
-        <v>6</v>
-      </c>
-      <c r="E124" t="s">
-        <v>255</v>
-      </c>
       <c r="F124" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
+        <v>255</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" t="s">
         <v>256</v>
       </c>
-      <c r="B125" t="s">
-        <v>6</v>
-      </c>
-      <c r="E125" t="s">
-        <v>257</v>
-      </c>
       <c r="F125" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
+        <v>257</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" t="s">
         <v>258</v>
       </c>
-      <c r="B126" t="s">
-        <v>6</v>
-      </c>
-      <c r="E126" t="s">
-        <v>259</v>
-      </c>
       <c r="F126" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
+        <v>259</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" t="s">
         <v>260</v>
       </c>
-      <c r="B127" t="s">
-        <v>6</v>
-      </c>
-      <c r="E127" t="s">
-        <v>261</v>
-      </c>
       <c r="F127" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
+        <v>261</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128" t="s">
         <v>262</v>
       </c>
-      <c r="B128" t="s">
-        <v>6</v>
-      </c>
-      <c r="E128" t="s">
-        <v>263</v>
-      </c>
       <c r="F128" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
+        <v>263</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" t="s">
         <v>264</v>
       </c>
-      <c r="B129" t="s">
-        <v>6</v>
-      </c>
-      <c r="E129" t="s">
-        <v>265</v>
-      </c>
       <c r="F129" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B130" t="s">
         <v>9</v>
@@ -3839,15 +3840,15 @@
         <v>0</v>
       </c>
       <c r="E130" t="s">
+        <v>266</v>
+      </c>
+      <c r="F130" t="s">
         <v>267</v>
-      </c>
-      <c r="F130" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B131" t="s">
         <v>8</v>
@@ -3859,15 +3860,15 @@
         <v>2</v>
       </c>
       <c r="E131" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F131" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B132" t="s">
         <v>8</v>
@@ -3879,15 +3880,15 @@
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F132" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
@@ -3899,15 +3900,15 @@
         <v>6</v>
       </c>
       <c r="E133" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F133" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
@@ -3919,15 +3920,15 @@
         <v>4</v>
       </c>
       <c r="E134" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F134" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
@@ -3939,239 +3940,239 @@
         <v>3</v>
       </c>
       <c r="E135" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
+        <v>278</v>
+      </c>
+      <c r="B136" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136" t="s">
         <v>279</v>
       </c>
-      <c r="B136" t="s">
-        <v>6</v>
-      </c>
-      <c r="E136" t="s">
-        <v>280</v>
-      </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
+        <v>280</v>
+      </c>
+      <c r="B137" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" t="s">
         <v>281</v>
       </c>
-      <c r="B137" t="s">
-        <v>6</v>
-      </c>
-      <c r="E137" t="s">
-        <v>282</v>
-      </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
+        <v>282</v>
+      </c>
+      <c r="B138" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" t="s">
         <v>283</v>
       </c>
-      <c r="B138" t="s">
-        <v>6</v>
-      </c>
-      <c r="E138" t="s">
-        <v>284</v>
-      </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
+        <v>284</v>
+      </c>
+      <c r="B139" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" t="s">
         <v>285</v>
       </c>
-      <c r="B139" t="s">
-        <v>6</v>
-      </c>
-      <c r="E139" t="s">
-        <v>286</v>
-      </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
+        <v>286</v>
+      </c>
+      <c r="B140" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140" t="s">
         <v>287</v>
       </c>
-      <c r="B140" t="s">
-        <v>6</v>
-      </c>
-      <c r="E140" t="s">
-        <v>288</v>
-      </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
+        <v>288</v>
+      </c>
+      <c r="B141" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" t="s">
         <v>289</v>
       </c>
-      <c r="B141" t="s">
-        <v>6</v>
-      </c>
-      <c r="E141" t="s">
-        <v>290</v>
-      </c>
       <c r="F141" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
+        <v>290</v>
+      </c>
+      <c r="B142" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" t="s">
         <v>291</v>
       </c>
-      <c r="B142" t="s">
-        <v>6</v>
-      </c>
-      <c r="E142" t="s">
-        <v>292</v>
-      </c>
       <c r="F142" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
+        <v>292</v>
+      </c>
+      <c r="B143" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" t="s">
         <v>293</v>
       </c>
-      <c r="B143" t="s">
-        <v>6</v>
-      </c>
-      <c r="E143" t="s">
-        <v>294</v>
-      </c>
       <c r="F143" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
+        <v>294</v>
+      </c>
+      <c r="B144" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" t="s">
         <v>295</v>
       </c>
-      <c r="B144" t="s">
-        <v>6</v>
-      </c>
-      <c r="E144" t="s">
-        <v>296</v>
-      </c>
       <c r="F144" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
+        <v>296</v>
+      </c>
+      <c r="B145" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145" t="s">
         <v>297</v>
       </c>
-      <c r="B145" t="s">
-        <v>6</v>
-      </c>
-      <c r="E145" t="s">
-        <v>298</v>
-      </c>
       <c r="F145" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
+        <v>298</v>
+      </c>
+      <c r="B146" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" t="s">
         <v>299</v>
       </c>
-      <c r="B146" t="s">
-        <v>6</v>
-      </c>
-      <c r="E146" t="s">
-        <v>300</v>
-      </c>
       <c r="F146" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
+        <v>300</v>
+      </c>
+      <c r="B147" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" t="s">
         <v>301</v>
       </c>
-      <c r="B147" t="s">
-        <v>6</v>
-      </c>
-      <c r="E147" t="s">
-        <v>302</v>
-      </c>
       <c r="F147" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
+        <v>302</v>
+      </c>
+      <c r="B148" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148" t="s">
         <v>303</v>
       </c>
-      <c r="B148" t="s">
-        <v>6</v>
-      </c>
-      <c r="E148" t="s">
-        <v>304</v>
-      </c>
       <c r="F148" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
+        <v>304</v>
+      </c>
+      <c r="B149" t="s">
+        <v>6</v>
+      </c>
+      <c r="E149" t="s">
         <v>305</v>
       </c>
-      <c r="B149" t="s">
-        <v>6</v>
-      </c>
-      <c r="E149" t="s">
-        <v>306</v>
-      </c>
       <c r="F149" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B150" t="s">
         <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F150" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B151" t="s">
         <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F151" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B152" t="s">
         <v>9</v>
@@ -4183,15 +4184,15 @@
         <v>0</v>
       </c>
       <c r="E152" t="s">
+        <v>311</v>
+      </c>
+      <c r="F152" t="s">
         <v>312</v>
-      </c>
-      <c r="F152" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B153" t="s">
         <v>8</v>
@@ -4203,15 +4204,15 @@
         <v>0</v>
       </c>
       <c r="E153" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F153" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -4223,12 +4224,12 @@
         <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
@@ -4240,15 +4241,15 @@
         <v>3</v>
       </c>
       <c r="E155" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F155" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
@@ -4260,15 +4261,15 @@
         <v>2</v>
       </c>
       <c r="E156" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F156" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
@@ -4280,15 +4281,15 @@
         <v>1</v>
       </c>
       <c r="E157" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F157" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
@@ -4300,211 +4301,211 @@
         <v>4</v>
       </c>
       <c r="E158" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F158" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
+        <v>324</v>
+      </c>
+      <c r="B159" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159" t="s">
         <v>325</v>
       </c>
-      <c r="B159" t="s">
-        <v>6</v>
-      </c>
-      <c r="E159" t="s">
-        <v>326</v>
-      </c>
       <c r="F159" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>326</v>
+      </c>
+      <c r="B160" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160" t="s">
         <v>327</v>
       </c>
-      <c r="B160" t="s">
-        <v>6</v>
-      </c>
-      <c r="E160" t="s">
-        <v>328</v>
-      </c>
       <c r="F160" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B161" t="s">
         <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F161" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
+        <v>330</v>
+      </c>
+      <c r="B162" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" t="s">
         <v>331</v>
       </c>
-      <c r="B162" t="s">
-        <v>6</v>
-      </c>
-      <c r="E162" t="s">
-        <v>332</v>
-      </c>
       <c r="F162" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
+        <v>332</v>
+      </c>
+      <c r="B163" t="s">
+        <v>6</v>
+      </c>
+      <c r="E163" t="s">
         <v>333</v>
       </c>
-      <c r="B163" t="s">
-        <v>6</v>
-      </c>
-      <c r="E163" t="s">
-        <v>334</v>
-      </c>
       <c r="F163" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
+        <v>334</v>
+      </c>
+      <c r="B164" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164" t="s">
         <v>335</v>
       </c>
-      <c r="B164" t="s">
-        <v>6</v>
-      </c>
-      <c r="E164" t="s">
-        <v>336</v>
-      </c>
       <c r="F164" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
+        <v>336</v>
+      </c>
+      <c r="B165" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" t="s">
         <v>337</v>
       </c>
-      <c r="B165" t="s">
-        <v>6</v>
-      </c>
-      <c r="E165" t="s">
-        <v>338</v>
-      </c>
       <c r="F165" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
+        <v>338</v>
+      </c>
+      <c r="B166" t="s">
+        <v>6</v>
+      </c>
+      <c r="E166" t="s">
         <v>339</v>
       </c>
-      <c r="B166" t="s">
-        <v>6</v>
-      </c>
-      <c r="E166" t="s">
-        <v>340</v>
-      </c>
       <c r="F166" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
+        <v>340</v>
+      </c>
+      <c r="B167" t="s">
+        <v>6</v>
+      </c>
+      <c r="E167" t="s">
         <v>341</v>
       </c>
-      <c r="B167" t="s">
-        <v>6</v>
-      </c>
-      <c r="E167" t="s">
-        <v>342</v>
-      </c>
       <c r="F167" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
+        <v>342</v>
+      </c>
+      <c r="B168" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168" t="s">
         <v>343</v>
       </c>
-      <c r="B168" t="s">
-        <v>6</v>
-      </c>
-      <c r="E168" t="s">
-        <v>344</v>
-      </c>
       <c r="F168" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
+        <v>344</v>
+      </c>
+      <c r="B169" t="s">
+        <v>6</v>
+      </c>
+      <c r="E169" t="s">
         <v>345</v>
       </c>
-      <c r="B169" t="s">
-        <v>6</v>
-      </c>
-      <c r="E169" t="s">
-        <v>346</v>
-      </c>
       <c r="F169" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
+        <v>346</v>
+      </c>
+      <c r="B170" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" t="s">
         <v>347</v>
       </c>
-      <c r="B170" t="s">
-        <v>6</v>
-      </c>
-      <c r="E170" t="s">
-        <v>348</v>
-      </c>
       <c r="F170" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B171" t="s">
         <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F171" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B172" t="s">
         <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F172" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B173" t="s">
         <v>9</v>
@@ -4516,15 +4517,15 @@
         <v>0</v>
       </c>
       <c r="E173" t="s">
+        <v>353</v>
+      </c>
+      <c r="F173" t="s">
         <v>354</v>
-      </c>
-      <c r="F173" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B174" t="s">
         <v>8</v>
@@ -4536,29 +4537,29 @@
         <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F174" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B175" t="s">
         <v>8</v>
       </c>
       <c r="E175" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F175" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
@@ -4570,253 +4571,253 @@
         <v>5</v>
       </c>
       <c r="E176" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F176" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
+        <v>361</v>
+      </c>
+      <c r="B177" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" t="s">
         <v>362</v>
       </c>
-      <c r="B177" t="s">
-        <v>6</v>
-      </c>
-      <c r="E177" t="s">
-        <v>363</v>
-      </c>
       <c r="F177" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
+        <v>363</v>
+      </c>
+      <c r="B178" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178" t="s">
         <v>364</v>
       </c>
-      <c r="B178" t="s">
-        <v>6</v>
-      </c>
-      <c r="E178" t="s">
-        <v>365</v>
-      </c>
       <c r="F178" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
+        <v>365</v>
+      </c>
+      <c r="B179" t="s">
+        <v>6</v>
+      </c>
+      <c r="E179" t="s">
         <v>366</v>
       </c>
-      <c r="B179" t="s">
-        <v>6</v>
-      </c>
-      <c r="E179" t="s">
-        <v>367</v>
-      </c>
       <c r="F179" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
+        <v>367</v>
+      </c>
+      <c r="B180" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180" t="s">
         <v>368</v>
       </c>
-      <c r="B180" t="s">
-        <v>6</v>
-      </c>
-      <c r="E180" t="s">
-        <v>369</v>
-      </c>
       <c r="F180" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
+        <v>369</v>
+      </c>
+      <c r="B181" t="s">
+        <v>6</v>
+      </c>
+      <c r="E181" t="s">
         <v>370</v>
       </c>
-      <c r="B181" t="s">
-        <v>6</v>
-      </c>
-      <c r="E181" t="s">
-        <v>371</v>
-      </c>
       <c r="F181" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
       </c>
       <c r="E182" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F182" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
+        <v>230</v>
+      </c>
+      <c r="B183" t="s">
+        <v>6</v>
+      </c>
+      <c r="E183" t="s">
         <v>231</v>
       </c>
-      <c r="B183" t="s">
-        <v>6</v>
-      </c>
-      <c r="E183" t="s">
-        <v>232</v>
-      </c>
       <c r="F183" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
+        <v>224</v>
+      </c>
+      <c r="B184" t="s">
+        <v>6</v>
+      </c>
+      <c r="E184" t="s">
         <v>225</v>
       </c>
-      <c r="B184" t="s">
-        <v>6</v>
-      </c>
-      <c r="E184" t="s">
-        <v>226</v>
-      </c>
       <c r="F184" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
+        <v>372</v>
+      </c>
+      <c r="B185" t="s">
+        <v>6</v>
+      </c>
+      <c r="E185" t="s">
         <v>373</v>
       </c>
-      <c r="B185" t="s">
-        <v>6</v>
-      </c>
-      <c r="E185" t="s">
-        <v>374</v>
-      </c>
       <c r="F185" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
+        <v>374</v>
+      </c>
+      <c r="B186" t="s">
+        <v>6</v>
+      </c>
+      <c r="E186" t="s">
         <v>375</v>
       </c>
-      <c r="B186" t="s">
-        <v>6</v>
-      </c>
-      <c r="E186" t="s">
-        <v>376</v>
-      </c>
       <c r="F186" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
+        <v>376</v>
+      </c>
+      <c r="B187" t="s">
+        <v>6</v>
+      </c>
+      <c r="E187" t="s">
         <v>377</v>
       </c>
-      <c r="B187" t="s">
-        <v>6</v>
-      </c>
-      <c r="E187" t="s">
-        <v>378</v>
-      </c>
       <c r="F187" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
+        <v>378</v>
+      </c>
+      <c r="B188" t="s">
+        <v>6</v>
+      </c>
+      <c r="E188" t="s">
         <v>379</v>
       </c>
-      <c r="B188" t="s">
-        <v>6</v>
-      </c>
-      <c r="E188" t="s">
-        <v>380</v>
-      </c>
       <c r="F188" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
+        <v>380</v>
+      </c>
+      <c r="B189" t="s">
+        <v>6</v>
+      </c>
+      <c r="E189" t="s">
         <v>381</v>
       </c>
-      <c r="B189" t="s">
-        <v>6</v>
-      </c>
-      <c r="E189" t="s">
-        <v>382</v>
-      </c>
       <c r="F189" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
+        <v>382</v>
+      </c>
+      <c r="B190" t="s">
+        <v>6</v>
+      </c>
+      <c r="E190" t="s">
         <v>383</v>
       </c>
-      <c r="B190" t="s">
-        <v>6</v>
-      </c>
-      <c r="E190" t="s">
-        <v>384</v>
-      </c>
       <c r="F190" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
+        <v>384</v>
+      </c>
+      <c r="B191" t="s">
+        <v>6</v>
+      </c>
+      <c r="E191" t="s">
         <v>385</v>
       </c>
-      <c r="B191" t="s">
-        <v>6</v>
-      </c>
-      <c r="E191" t="s">
-        <v>386</v>
-      </c>
       <c r="F191" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
+        <v>386</v>
+      </c>
+      <c r="B192" t="s">
+        <v>6</v>
+      </c>
+      <c r="E192" t="s">
         <v>387</v>
       </c>
-      <c r="B192" t="s">
-        <v>6</v>
-      </c>
-      <c r="E192" t="s">
-        <v>388</v>
-      </c>
       <c r="F192" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
+        <v>388</v>
+      </c>
+      <c r="B193" t="s">
+        <v>6</v>
+      </c>
+      <c r="E193" t="s">
         <v>389</v>
       </c>
-      <c r="B193" t="s">
-        <v>6</v>
-      </c>
-      <c r="E193" t="s">
-        <v>390</v>
-      </c>
       <c r="F193" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B194" t="s">
         <v>9</v>
@@ -4828,15 +4829,15 @@
         <v>0</v>
       </c>
       <c r="E194" t="s">
+        <v>391</v>
+      </c>
+      <c r="F194" t="s">
         <v>392</v>
-      </c>
-      <c r="F194" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B195" t="s">
         <v>9</v>
@@ -4848,15 +4849,15 @@
         <v>0</v>
       </c>
       <c r="E195" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F195" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B196" t="s">
         <v>9</v>
@@ -4868,15 +4869,15 @@
         <v>0</v>
       </c>
       <c r="E196" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F196" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B197" t="s">
         <v>8</v>
@@ -4888,220 +4889,220 @@
         <v>1</v>
       </c>
       <c r="E197" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F197" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B198" t="s">
         <v>6</v>
       </c>
       <c r="E198" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F198" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B199" t="s">
         <v>6</v>
       </c>
       <c r="E199" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F199" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B200" t="s">
         <v>6</v>
       </c>
       <c r="E200" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F200" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
+        <v>402</v>
+      </c>
+      <c r="B201" t="s">
+        <v>6</v>
+      </c>
+      <c r="E201" t="s">
         <v>403</v>
       </c>
-      <c r="B201" t="s">
-        <v>6</v>
-      </c>
-      <c r="E201" t="s">
-        <v>404</v>
-      </c>
       <c r="F201" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B202" t="s">
         <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F202" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
+        <v>404</v>
+      </c>
+      <c r="B203" t="s">
+        <v>6</v>
+      </c>
+      <c r="E203" t="s">
         <v>405</v>
       </c>
-      <c r="B203" t="s">
-        <v>6</v>
-      </c>
-      <c r="E203" t="s">
-        <v>406</v>
-      </c>
       <c r="F203" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
+        <v>406</v>
+      </c>
+      <c r="B204" t="s">
+        <v>6</v>
+      </c>
+      <c r="E204" t="s">
         <v>407</v>
       </c>
-      <c r="B204" t="s">
-        <v>6</v>
-      </c>
-      <c r="E204" t="s">
-        <v>408</v>
-      </c>
       <c r="F204" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
+        <v>408</v>
+      </c>
+      <c r="B205" t="s">
+        <v>6</v>
+      </c>
+      <c r="E205" t="s">
         <v>409</v>
       </c>
-      <c r="B205" t="s">
-        <v>6</v>
-      </c>
-      <c r="E205" t="s">
-        <v>410</v>
-      </c>
       <c r="F205" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
+        <v>410</v>
+      </c>
+      <c r="B206" t="s">
+        <v>6</v>
+      </c>
+      <c r="E206" t="s">
         <v>411</v>
       </c>
-      <c r="B206" t="s">
-        <v>6</v>
-      </c>
-      <c r="E206" t="s">
-        <v>412</v>
-      </c>
       <c r="F206" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
+        <v>412</v>
+      </c>
+      <c r="B207" t="s">
+        <v>6</v>
+      </c>
+      <c r="E207" t="s">
         <v>413</v>
       </c>
-      <c r="B207" t="s">
-        <v>6</v>
-      </c>
-      <c r="E207" t="s">
-        <v>414</v>
-      </c>
       <c r="F207" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
+        <v>414</v>
+      </c>
+      <c r="B208" t="s">
+        <v>6</v>
+      </c>
+      <c r="E208" t="s">
         <v>415</v>
       </c>
-      <c r="B208" t="s">
-        <v>6</v>
-      </c>
-      <c r="E208" t="s">
-        <v>416</v>
-      </c>
       <c r="F208" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
+        <v>416</v>
+      </c>
+      <c r="B209" t="s">
+        <v>6</v>
+      </c>
+      <c r="E209" t="s">
         <v>417</v>
       </c>
-      <c r="B209" t="s">
-        <v>6</v>
-      </c>
-      <c r="E209" t="s">
-        <v>418</v>
-      </c>
       <c r="F209" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
+        <v>418</v>
+      </c>
+      <c r="B210" t="s">
+        <v>6</v>
+      </c>
+      <c r="E210" t="s">
         <v>419</v>
       </c>
-      <c r="B210" t="s">
-        <v>6</v>
-      </c>
-      <c r="E210" t="s">
-        <v>420</v>
-      </c>
       <c r="F210" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
+        <v>420</v>
+      </c>
+      <c r="B211" t="s">
+        <v>6</v>
+      </c>
+      <c r="E211" t="s">
         <v>421</v>
       </c>
-      <c r="B211" t="s">
-        <v>6</v>
-      </c>
-      <c r="E211" t="s">
-        <v>422</v>
-      </c>
       <c r="F211" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
+        <v>422</v>
+      </c>
+      <c r="B212" t="s">
+        <v>6</v>
+      </c>
+      <c r="E212" t="s">
         <v>423</v>
       </c>
-      <c r="B212" t="s">
-        <v>6</v>
-      </c>
-      <c r="E212" t="s">
-        <v>424</v>
-      </c>
       <c r="F212" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>

--- a/cards.xlsx
+++ b/cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snidersa\git\CrimsonKnights\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansarij\Winter-22-Workspace\CrimsonKnights\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1736FBA7-D88B-46C7-A63A-6B27ED2C3D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFEDA9E-B618-4D3A-8049-1B3118337DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1428" yWindow="1380" windowWidth="21324" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="436">
   <si>
     <t>Name</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Take 3 cards of your choice out of the deck and place them in your hand, then shuffle the deck. These 3 cards don't count against you max hand size and you must discard 3 cards at the end of your next turn.</t>
   </si>
   <si>
-    <t>Sorcery Points</t>
-  </si>
-  <si>
     <t>Add a card from your discard pile to your hand, then play another card.</t>
   </si>
   <si>
@@ -231,9 +228,6 @@
     <t>Equip this to your hero until the end of your second turn. While equipped, you hero doesn't take damage when attacking and can use an action to heal 1d8.</t>
   </si>
   <si>
-    <t>This is a public Spa!</t>
-  </si>
-  <si>
     <t>All minions on the field are returned to their owner's hands. If there are none draw, 2 cards instead.</t>
   </si>
   <si>
@@ -267,9 +261,6 @@
     <t>Come Pick Us Up</t>
   </si>
   <si>
-    <t>Tactical Minitures</t>
-  </si>
-  <si>
     <t>Heretical Divide</t>
   </si>
   <si>
@@ -306,18 +297,12 @@
     <t>You have an additional action every turn, but can't use it to play a minion or spell card.</t>
   </si>
   <si>
-    <t>Tyreal Clone</t>
-  </si>
-  <si>
     <t>When this dies, you can take a card in your hand and shuffle it into your deck, then draw a card.</t>
   </si>
   <si>
     <t>Terry</t>
   </si>
   <si>
-    <t>Tyreal can play this card from anywhere.</t>
-  </si>
-  <si>
     <t>Baefordrin</t>
   </si>
   <si>
@@ -396,9 +381,6 @@
     <t>Add 1 card from your deck to your hand, then shuffle your deck. If it wasn't a minion or spell, you gain 2 attack and AC until the start of your next turn.</t>
   </si>
   <si>
-    <t>Im the Cook Now</t>
-  </si>
-  <si>
     <t>Choose an opponent, draw three cards from the top of their deck. Then that opponent chooses one to give you, discarding the rest.</t>
   </si>
   <si>
@@ -486,21 +468,12 @@
     <t>Choose an opponent, then roll 1d4. Deal damage to the opponent and heal yourself equal to the number rolled. This damage ignores AC</t>
   </si>
   <si>
-    <t>Mobile Florish</t>
-  </si>
-  <si>
     <t>On your next attack add 1d4 to it, then select a card randomly in the hand of the attacked opponent. They must shuffle it back into their deck.</t>
   </si>
   <si>
-    <t>Defensive Florish</t>
-  </si>
-  <si>
     <t>When an opponent uses an action, roll 1d6 and you gain attack and AC to the number rolled until the end of your next turn.</t>
   </si>
   <si>
-    <t>Slashing Florish</t>
-  </si>
-  <si>
     <t>When an opponent uses an action, roll 1d6 and you gain attack to the number rolled and when you attack next, choose one other target to take equivalent damage.</t>
   </si>
   <si>
@@ -549,24 +522,12 @@
     <t>Zeitherz</t>
   </si>
   <si>
-    <t>when you cast a spell, you can discard 2 card to cast it twice.</t>
-  </si>
-  <si>
-    <t>Nathanial</t>
-  </si>
-  <si>
     <t>Staff of Power</t>
   </si>
   <si>
-    <t>when you cast a spell, it does 1 additional damage.</t>
-  </si>
-  <si>
     <t>Cloak of invisibility</t>
   </si>
   <si>
-    <t>as an action you can discard a card and can't be targeted by attacks or spells until the start of your next turn.</t>
-  </si>
-  <si>
     <t>Familiar</t>
   </si>
   <si>
@@ -588,15 +549,9 @@
     <t>Shield</t>
   </si>
   <si>
-    <t>gain 5 AC till the start of your next turn.</t>
-  </si>
-  <si>
     <t>Cone of Cold</t>
   </si>
   <si>
-    <t>each opponent can choose to take 6 damage or skip their next draw phase.</t>
-  </si>
-  <si>
     <t>Crown of Stars</t>
   </si>
   <si>
@@ -624,9 +579,6 @@
     <t>Choose an enemy hero, deal 1d4 damage to them and then draw a card. If that opponent had any minions, they cannot attack you until the start of your next turn.</t>
   </si>
   <si>
-    <t>Flash of Geniuess</t>
-  </si>
-  <si>
     <t>Shuffle your discard pile into your deck.</t>
   </si>
   <si>
@@ -663,9 +615,6 @@
     <t>Dad's Bank Account</t>
   </si>
   <si>
-    <t>Take a card from you hand and place it outside the game. 1 to 3 turns after this card is played, use an action to add the card to your hand a draw an amount of cards equal to the number of your turns that passed.</t>
-  </si>
-  <si>
     <t>Correlon's Blessing</t>
   </si>
   <si>
@@ -711,9 +660,6 @@
     <t>You get two additional actions during this action phase, draw a card.</t>
   </si>
   <si>
-    <t>Indomitable</t>
-  </si>
-  <si>
     <t>When a player targets you with a card, put it back in there hand and make them play another card in their hand if able.</t>
   </si>
   <si>
@@ -780,9 +726,6 @@
     <t>Whenever your hero attacks, draw a card, then you can discard one.</t>
   </si>
   <si>
-    <t>Blind Vengeance/PureIntent</t>
-  </si>
-  <si>
     <t>Discard 1 card and draw 2./ Draw 1 card</t>
   </si>
   <si>
@@ -948,15 +891,9 @@
     <t>Relentless Avenger</t>
   </si>
   <si>
-    <t>when an enemy attacks one of your companions, Your hero immediately attacks them and deals an additional 1d6 damage.</t>
-  </si>
-  <si>
     <t>Shield Master</t>
   </si>
   <si>
-    <t>ignore the next damage you would take.</t>
-  </si>
-  <si>
     <t>Arena Ward</t>
   </si>
   <si>
@@ -1053,9 +990,6 @@
     <t>During another opponents turn, you can play a card during their action phase. You choose when it gets played.</t>
   </si>
   <si>
-    <t>Lucky</t>
-  </si>
-  <si>
     <t>Choose a card randomly in your opponents hand and discard it. Then discard the top card of your opponents deck.</t>
   </si>
   <si>
@@ -1158,21 +1092,12 @@
     <t>Cold Rite</t>
   </si>
   <si>
-    <t>roll 1d4, lose that much health and send the top card of your opponents deck to the discard pile.</t>
-  </si>
-  <si>
     <t>Lightning Rite</t>
   </si>
   <si>
-    <t>roll 1d4, lose that much health and you can play an extra card on your next turn.</t>
-  </si>
-  <si>
     <t>Rite Preparation</t>
   </si>
   <si>
-    <t>roll 1d4, lose that much health and search your deck for a card with "Rite" in the name, add it to your hand. Then shuffle your deck.</t>
-  </si>
-  <si>
     <t>Binding</t>
   </si>
   <si>
@@ -1308,7 +1233,106 @@
     <t>(Craftable) When drawn, place this card on the field. It is dormant and can't be effected. Whenever a "Crafting Component" card is played, attach to this card. When this card gets 2 "Crafting Components", it becomes no longer dormant and equips to the hero. While not dormant, you can use a reaction to trap a card being played inside. While trapped the card cannot be played, and it takes an action for the cards owner to add it back to their hand. Only one card can be held at a time.</t>
   </si>
   <si>
-    <t>Tyreal</t>
+    <t>Nathaniel</t>
+  </si>
+  <si>
+    <t>Second Wind (Draveik)</t>
+  </si>
+  <si>
+    <t>Second Wind (Aleyna)</t>
+  </si>
+  <si>
+    <t>Extra Attack (Akari)</t>
+  </si>
+  <si>
+    <t>Extra Attack (Draveik)</t>
+  </si>
+  <si>
+    <t>Indomitable (Draveik)</t>
+  </si>
+  <si>
+    <t>Indomitable (Akari)</t>
+  </si>
+  <si>
+    <t>Lucky (Gareth)</t>
+  </si>
+  <si>
+    <t>Lucky (Aleyna)</t>
+  </si>
+  <si>
+    <t>Sorcery Points (Praedyth)</t>
+  </si>
+  <si>
+    <t>Sorcery Points (Canton)</t>
+  </si>
+  <si>
+    <t>Tyrael</t>
+  </si>
+  <si>
+    <t>Tyrael Clone</t>
+  </si>
+  <si>
+    <t>Tyrael can play this card from anywhere.</t>
+  </si>
+  <si>
+    <t>I'm the Cook Now</t>
+  </si>
+  <si>
+    <t>Mobile Flourish</t>
+  </si>
+  <si>
+    <t>Defensive Flourish</t>
+  </si>
+  <si>
+    <t>Slashing Flourish</t>
+  </si>
+  <si>
+    <t>When you cast a spell, you can discard 2 cards to cast it twice.</t>
+  </si>
+  <si>
+    <t>When you cast a spell, it does 1 additional damage.</t>
+  </si>
+  <si>
+    <t>As an action you can discard a card and can't be targeted by attacks or spells until the start of your next turn.</t>
+  </si>
+  <si>
+    <t>Gain 5 AC till the start of your next turn.</t>
+  </si>
+  <si>
+    <t>Each opponent can choose to take 6 damage or skip their next draw phase.</t>
+  </si>
+  <si>
+    <t>Flash of Genius</t>
+  </si>
+  <si>
+    <t>Take a card from your hand and place it outside the game. 1 to 3 turns after this card is played, use an action to add the card to your hand a draw an amount of cards equal to the number of your turns that passed.</t>
+  </si>
+  <si>
+    <t>This is a Public Spa!</t>
+  </si>
+  <si>
+    <t>Tactical Miniatures</t>
+  </si>
+  <si>
+    <t>Blind Vengeance/Pure Intent</t>
+  </si>
+  <si>
+    <t>Ignore the next damage you would take.</t>
+  </si>
+  <si>
+    <t>When an enemy attacks one of your companions, Your hero immediately attacks them and deals an additional 1d6 damage.</t>
+  </si>
+  <si>
+    <t>Has +1 attack and +1 AC.</t>
+  </si>
+  <si>
+    <t>Roll 1d4, lose that much health and send the top card of your opponents deck to the discard pile.</t>
+  </si>
+  <si>
+    <t>Roll 1d4, lose that much health and you can play an extra card on your next turn.</t>
+  </si>
+  <si>
+    <t>Roll 1d4, lose that much health and search your deck for a card with "Rite" in the name, add it to your hand. Then shuffle your deck.</t>
   </si>
 </sst>
 </file>
@@ -1344,10 +1368,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1630,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1661,7 +1684,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -1670,15 +1693,15 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1687,32 +1710,32 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1721,15 +1744,15 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="F5" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1738,15 +1761,15 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>414</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1758,15 +1781,15 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1778,15 +1801,15 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>415</v>
       </c>
       <c r="F8" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -1798,239 +1821,239 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F11" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F12" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F13" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F14" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F15" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F16" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F17" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F18" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F19" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F20" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F21" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>416</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F22" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F24" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F25" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
@@ -2039,15 +2062,15 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F26" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -2056,15 +2079,15 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F27" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -2076,12 +2099,12 @@
         <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -2093,15 +2116,15 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F29" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -2113,15 +2136,15 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F30" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -2133,15 +2156,15 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F31" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -2153,211 +2176,211 @@
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F32" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>411</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" t="s">
-        <v>33</v>
-      </c>
       <c r="F33" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F34" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F35" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F36" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F37" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>153</v>
+        <v>417</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F38" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>155</v>
+        <v>418</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F39" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>157</v>
+        <v>419</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F40" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F41" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
       <c r="E42" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F42" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F43" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F44" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F45" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
       </c>
       <c r="E46" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F46" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -2369,15 +2392,15 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F47" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
@@ -2386,15 +2409,15 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>174</v>
+        <v>420</v>
       </c>
       <c r="F48" t="s">
-        <v>175</v>
+        <v>402</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
@@ -2403,15 +2426,15 @@
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>177</v>
+        <v>421</v>
       </c>
       <c r="F49" t="s">
-        <v>175</v>
+        <v>402</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -2420,15 +2443,15 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>179</v>
+        <v>422</v>
       </c>
       <c r="F50" t="s">
-        <v>175</v>
+        <v>402</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -2440,15 +2463,15 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="F51" t="s">
-        <v>175</v>
+        <v>402</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -2460,15 +2483,15 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F52" t="s">
-        <v>175</v>
+        <v>402</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
@@ -2480,225 +2503,225 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="F53" t="s">
-        <v>175</v>
+        <v>402</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>187</v>
+        <v>423</v>
       </c>
       <c r="F54" t="s">
-        <v>175</v>
+        <v>402</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>189</v>
+        <v>424</v>
       </c>
       <c r="F55" t="s">
-        <v>175</v>
+        <v>402</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
       </c>
       <c r="E56" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F56" t="s">
-        <v>175</v>
+        <v>402</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
       </c>
       <c r="E57" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="F57" t="s">
-        <v>175</v>
+        <v>402</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>175</v>
+        <v>402</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
       </c>
       <c r="E59" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="F59" t="s">
-        <v>175</v>
+        <v>402</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
       </c>
       <c r="E60" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="F60" t="s">
-        <v>175</v>
+        <v>402</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
       <c r="E61" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="F61" t="s">
-        <v>175</v>
+        <v>402</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
       </c>
       <c r="E62" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="F62" t="s">
-        <v>175</v>
+        <v>402</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
       </c>
       <c r="E63" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F63" t="s">
-        <v>175</v>
+        <v>402</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
       <c r="E64" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="F64" t="s">
-        <v>175</v>
+        <v>402</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
       </c>
       <c r="E65" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="F65" t="s">
-        <v>175</v>
+        <v>402</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
       </c>
       <c r="E66" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="F66" t="s">
-        <v>175</v>
+        <v>402</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
       <c r="E67" t="s">
-        <v>212</v>
+        <v>426</v>
       </c>
       <c r="F67" t="s">
-        <v>175</v>
+        <v>402</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
       </c>
       <c r="E68" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="F68" t="s">
-        <v>175</v>
+        <v>402</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B69" t="s">
         <v>9</v>
@@ -2710,15 +2733,15 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
@@ -2730,15 +2753,15 @@
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
@@ -2750,55 +2773,55 @@
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
         <v>60</v>
       </c>
-      <c r="B72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72" t="s">
-        <v>61</v>
-      </c>
       <c r="F72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>61</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
         <v>62</v>
       </c>
-      <c r="B73" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73" t="s">
-        <v>63</v>
-      </c>
       <c r="F73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
@@ -2810,15 +2833,15 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -2830,35 +2853,35 @@
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
         <v>66</v>
       </c>
-      <c r="B76" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76" t="s">
-        <v>67</v>
-      </c>
       <c r="F76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>68</v>
+        <v>427</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
@@ -2870,15 +2893,15 @@
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
@@ -2890,15 +2913,15 @@
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
@@ -2910,15 +2933,15 @@
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
@@ -2930,15 +2953,15 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
@@ -2950,15 +2973,15 @@
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
@@ -2970,15 +2993,15 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="F82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>428</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
@@ -2990,15 +3013,15 @@
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
@@ -3010,10 +3033,10 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3130,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="F90" t="s">
         <v>11</v>
@@ -3150,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F91" t="s">
         <v>11</v>
@@ -3170,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F92" t="s">
         <v>11</v>
@@ -3178,7 +3201,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -3258,19 +3281,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>412</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" t="s">
         <v>32</v>
-      </c>
-      <c r="B97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97" t="s">
-        <v>33</v>
       </c>
       <c r="F97" t="s">
         <v>11</v>
@@ -3278,7 +3301,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B98" t="s">
         <v>10</v>
@@ -3290,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F98" t="s">
         <v>11</v>
@@ -3298,7 +3321,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -3310,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="F99" t="s">
         <v>11</v>
@@ -3318,19 +3341,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
       </c>
       <c r="C100" t="s">
+        <v>42</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100" t="s">
         <v>43</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100" t="s">
-        <v>44</v>
       </c>
       <c r="F100" t="s">
         <v>11</v>
@@ -3338,7 +3361,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -3350,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F101" t="s">
         <v>11</v>
@@ -3358,7 +3381,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -3370,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
         <v>11</v>
@@ -3378,7 +3401,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -3390,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F103" t="s">
         <v>11</v>
@@ -3398,7 +3421,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -3410,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F104" t="s">
         <v>11</v>
@@ -3418,7 +3441,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -3430,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F105" t="s">
         <v>11</v>
@@ -3438,7 +3461,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="B106" t="s">
         <v>9</v>
@@ -3450,15 +3473,15 @@
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="F106" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="B107" t="s">
         <v>9</v>
@@ -3470,15 +3493,15 @@
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="F107" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
@@ -3490,15 +3513,15 @@
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="F108" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>224</v>
+        <v>403</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
@@ -3510,15 +3533,15 @@
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="F109" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -3530,127 +3553,127 @@
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F110" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>228</v>
+        <v>407</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="F111" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>230</v>
+        <v>406</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
       </c>
       <c r="E112" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="F112" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
       </c>
       <c r="E113" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="F113" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
       </c>
       <c r="E114" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="F114" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="F115" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
       </c>
       <c r="E116" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="F116" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
       </c>
       <c r="E117" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="F117" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
       </c>
       <c r="E118" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="F118" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="B119" t="s">
         <v>5</v>
@@ -3662,15 +3685,15 @@
         <v>8</v>
       </c>
       <c r="E119" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="F119" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
@@ -3682,15 +3705,15 @@
         <v>2</v>
       </c>
       <c r="E120" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="F120" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
@@ -3702,15 +3725,15 @@
         <v>3</v>
       </c>
       <c r="E121" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="F121" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
@@ -3722,113 +3745,113 @@
         <v>5</v>
       </c>
       <c r="E122" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F122" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>251</v>
+        <v>429</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
       </c>
       <c r="E123" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="F123" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
       </c>
       <c r="E124" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="F124" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
       </c>
       <c r="E125" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="F125" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
       </c>
       <c r="E126" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="F126" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
       </c>
       <c r="E127" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="F127" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
       </c>
       <c r="E128" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="F128" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
       </c>
       <c r="E129" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="F129" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="B130" t="s">
         <v>9</v>
@@ -3840,15 +3863,15 @@
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="F130" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="B131" t="s">
         <v>8</v>
@@ -3860,15 +3883,15 @@
         <v>2</v>
       </c>
       <c r="E131" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="F131" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="B132" t="s">
         <v>8</v>
@@ -3880,15 +3903,15 @@
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="F132" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
@@ -3900,15 +3923,15 @@
         <v>6</v>
       </c>
       <c r="E133" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="F133" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
@@ -3920,15 +3943,15 @@
         <v>4</v>
       </c>
       <c r="E134" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="F134" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
@@ -3940,239 +3963,239 @@
         <v>3</v>
       </c>
       <c r="E135" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="F135" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
       </c>
       <c r="E136" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="F136" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="B137" t="s">
         <v>6</v>
       </c>
       <c r="E137" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="F137" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="B138" t="s">
         <v>6</v>
       </c>
       <c r="E138" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="F138" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="B139" t="s">
         <v>6</v>
       </c>
       <c r="E139" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="F139" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B140" t="s">
         <v>6</v>
       </c>
       <c r="E140" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="F140" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="B141" t="s">
         <v>6</v>
       </c>
       <c r="E141" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="F141" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="B142" t="s">
         <v>6</v>
       </c>
       <c r="E142" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="F142" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
       </c>
       <c r="E143" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="F143" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
       </c>
       <c r="E144" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="F144" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="B145" t="s">
         <v>6</v>
       </c>
       <c r="E145" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="F145" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="B146" t="s">
         <v>6</v>
       </c>
       <c r="E146" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="F146" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
       </c>
       <c r="E147" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="F147" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
       </c>
       <c r="E148" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="F148" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="B149" t="s">
         <v>6</v>
       </c>
       <c r="E149" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="F149" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="B150" t="s">
         <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>307</v>
+        <v>431</v>
       </c>
       <c r="F150" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="B151" t="s">
         <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>309</v>
+        <v>430</v>
       </c>
       <c r="F151" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="B152" t="s">
         <v>9</v>
@@ -4184,15 +4207,15 @@
         <v>0</v>
       </c>
       <c r="E152" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="F152" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="B153" t="s">
         <v>8</v>
@@ -4204,15 +4227,15 @@
         <v>0</v>
       </c>
       <c r="E153" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="F153" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -4223,13 +4246,16 @@
       <c r="D154">
         <v>1</v>
       </c>
+      <c r="E154" t="s">
+        <v>432</v>
+      </c>
       <c r="F154" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
@@ -4241,15 +4267,15 @@
         <v>3</v>
       </c>
       <c r="E155" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="F155" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
@@ -4261,15 +4287,15 @@
         <v>2</v>
       </c>
       <c r="E156" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="F156" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
@@ -4281,15 +4307,15 @@
         <v>1</v>
       </c>
       <c r="E157" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
@@ -4301,211 +4327,211 @@
         <v>4</v>
       </c>
       <c r="E158" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
       </c>
       <c r="E159" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
       </c>
       <c r="E160" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="B161" t="s">
         <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
       </c>
       <c r="E162" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
       </c>
       <c r="E163" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
       </c>
       <c r="E164" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="F164" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
       </c>
       <c r="E165" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="F165" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
       </c>
       <c r="E166" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="F166" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="B167" t="s">
         <v>6</v>
       </c>
       <c r="E167" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="F167" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>342</v>
+        <v>409</v>
       </c>
       <c r="B168" t="s">
         <v>6</v>
       </c>
       <c r="E168" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="F168" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="B169" t="s">
         <v>6</v>
       </c>
       <c r="E169" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="F169" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="B170" t="s">
         <v>6</v>
       </c>
       <c r="E170" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="F170" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="B171" t="s">
         <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="F171" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="B172" t="s">
         <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="F172" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="B173" t="s">
         <v>9</v>
@@ -4517,15 +4543,15 @@
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="F173" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="B174" t="s">
         <v>8</v>
@@ -4537,29 +4563,29 @@
         <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="F174" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="B175" t="s">
         <v>8</v>
       </c>
       <c r="E175" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="F175" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
@@ -4571,253 +4597,253 @@
         <v>5</v>
       </c>
       <c r="E176" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="F176" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="B177" t="s">
         <v>6</v>
       </c>
       <c r="E177" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="F177" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="B178" t="s">
         <v>6</v>
       </c>
       <c r="E178" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="F178" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="B179" t="s">
         <v>6</v>
       </c>
       <c r="E179" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="B180" t="s">
         <v>6</v>
       </c>
       <c r="E180" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="B181" t="s">
         <v>6</v>
       </c>
       <c r="E181" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>342</v>
+        <v>410</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
       </c>
       <c r="E182" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
       </c>
       <c r="E183" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="F183" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>224</v>
+        <v>404</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
       </c>
       <c r="E184" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="F184" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
       </c>
       <c r="E185" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="F185" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
       </c>
       <c r="E186" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="F186" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
       </c>
       <c r="E187" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="F187" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
       </c>
       <c r="E188" t="s">
-        <v>379</v>
+        <v>434</v>
       </c>
       <c r="F188" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
       </c>
       <c r="E189" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="F189" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
       </c>
       <c r="E190" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="F190" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
       </c>
       <c r="E191" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="F191" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
       </c>
       <c r="E192" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="F192" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
       </c>
       <c r="E193" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="F193" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="B194" t="s">
         <v>9</v>
@@ -4829,15 +4855,15 @@
         <v>0</v>
       </c>
       <c r="E194" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="F194" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="B195" t="s">
         <v>9</v>
@@ -4849,15 +4875,15 @@
         <v>0</v>
       </c>
       <c r="E195" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="F195" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="B196" t="s">
         <v>9</v>
@@ -4869,15 +4895,15 @@
         <v>0</v>
       </c>
       <c r="E196" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="F196" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="B197" t="s">
         <v>8</v>
@@ -4889,220 +4915,220 @@
         <v>1</v>
       </c>
       <c r="E197" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="F197" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="B198" t="s">
         <v>6</v>
       </c>
       <c r="E198" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="F198" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>230</v>
+        <v>405</v>
       </c>
       <c r="B199" t="s">
         <v>6</v>
       </c>
       <c r="E199" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="F199" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="B200" t="s">
         <v>6</v>
       </c>
       <c r="E200" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="B201" t="s">
         <v>6</v>
       </c>
       <c r="E201" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>228</v>
+        <v>408</v>
       </c>
       <c r="B202" t="s">
         <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="F202" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="B203" t="s">
         <v>6</v>
       </c>
       <c r="E203" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="F203" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="B204" t="s">
         <v>6</v>
       </c>
       <c r="E204" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="F204" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="B205" t="s">
         <v>6</v>
       </c>
       <c r="E205" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="F205" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="B206" t="s">
         <v>6</v>
       </c>
       <c r="E206" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="F206" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="B207" t="s">
         <v>6</v>
       </c>
       <c r="E207" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="F207" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="B208" t="s">
         <v>6</v>
       </c>
       <c r="E208" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="F208" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="B209" t="s">
         <v>6</v>
       </c>
       <c r="E209" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="F209" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="B210" t="s">
         <v>6</v>
       </c>
       <c r="E210" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="F210" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="B211" t="s">
         <v>6</v>
       </c>
       <c r="E211" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="F211" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
       </c>
       <c r="E212" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="F212" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
